--- a/output/time_trial_ranking.xlsx
+++ b/output/time_trial_ranking.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="2001">
-  <si>
-    <t>06:46AM April 07, 2020</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="1999">
+  <si>
+    <t>02:08PM April 07, 2020</t>
   </si>
   <si>
     <t>Rc_FIVE</t>
@@ -5101,9 +5101,6 @@
     <t>ZenQMeister gets SILVER medal on Thunder Struck!</t>
   </si>
   <si>
-    <t>Gustlyk1 gets GOLD medal on Coco Park!</t>
-  </si>
-  <si>
     <t>crashb1908mufc</t>
   </si>
   <si>
@@ -6017,9 +6014,6 @@
   </si>
   <si>
     <t>crashb1908mufc gets GOLD medal on Sewer Speedway!</t>
-  </si>
-  <si>
-    <t>crashb1908mufc gets GOLD medal on Prehistoric Playground!</t>
   </si>
 </sst>
 </file>
@@ -10311,7 +10305,7 @@
         <v>426</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
@@ -10327,7 +10321,7 @@
         <v>429</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
@@ -10343,7 +10337,7 @@
         <v>432</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
@@ -10359,7 +10353,7 @@
         <v>435</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
@@ -10375,7 +10369,7 @@
         <v>438</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
@@ -10391,7 +10385,7 @@
         <v>441</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
@@ -10407,7 +10401,7 @@
         <v>444</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
@@ -10423,7 +10417,7 @@
         <v>447</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>991</v>
+        <v>998</v>
       </c>
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
@@ -13105,7 +13099,7 @@
         <v>426</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
@@ -13137,7 +13131,7 @@
         <v>432</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
@@ -13153,7 +13147,7 @@
         <v>435</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
@@ -13169,7 +13163,7 @@
         <v>438</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
@@ -13185,7 +13179,7 @@
         <v>441</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
@@ -13201,7 +13195,7 @@
         <v>444</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
@@ -13217,7 +13211,7 @@
         <v>447</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
@@ -13261,28 +13255,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1695</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1696</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1697</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="25" t="s">
         <v>1698</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="G1" s="2" t="s">
         <v>1699</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>1700</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="25" t="s">
         <v>1701</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>1702</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -13293,25 +13287,25 @@
         <v>1030</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>1703</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>1704</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>1705</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>1706</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>1707</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="7" t="s">
         <v>1708</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>1709</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -13319,28 +13313,28 @@
         <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>1710</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>1711</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>1712</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>1713</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>1714</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>1715</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="7" t="s">
         <v>1716</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>1717</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -13348,28 +13342,28 @@
         <v>29</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>209</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>1719</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>1720</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>1721</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>1722</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="7" t="s">
         <v>1723</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>1724</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -13377,28 +13371,28 @@
         <v>39</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>1725</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>1726</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>1727</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>1728</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>1729</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>1730</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="7" t="s">
         <v>1731</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>1732</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -13406,25 +13400,25 @@
         <v>49</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>1734</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>1735</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>1736</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>1737</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>1738</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>169</v>
@@ -13435,28 +13429,28 @@
         <v>59</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>1739</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>1740</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="6" t="s">
         <v>1741</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>1742</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>1743</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>1744</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="7" t="s">
         <v>1745</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>1746</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -13464,25 +13458,25 @@
         <v>69</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>1747</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>1748</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>1749</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>638</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>1750</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>1751</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>1752</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>1173</v>
@@ -13493,28 +13487,28 @@
         <v>79</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>1753</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="6" t="s">
         <v>1754</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>1755</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>1756</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>1757</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>1758</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="7" t="s">
         <v>1759</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>1760</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -13522,28 +13516,28 @@
         <v>89</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>1761</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>1762</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="6" t="s">
         <v>1763</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="4" t="s">
         <v>1764</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>1765</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>1766</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="7" t="s">
         <v>1767</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>1768</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -13551,28 +13545,28 @@
         <v>99</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>1769</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>1770</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="6" t="s">
         <v>1771</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>1772</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>1773</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>1774</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="7" t="s">
         <v>1775</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>1776</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -13580,28 +13574,28 @@
         <v>109</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>1777</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>1778</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>1779</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>1780</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>1781</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>1782</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="7" t="s">
         <v>1783</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>1784</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -13609,28 +13603,28 @@
         <v>119</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>1785</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="6" t="s">
         <v>1786</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>1787</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>1788</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>1789</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>1790</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="7" t="s">
         <v>1791</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>1792</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -13638,28 +13632,28 @@
         <v>129</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>191</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>1794</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>1795</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>1796</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>1797</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="7" t="s">
         <v>1798</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>1799</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -13670,25 +13664,25 @@
         <v>1352</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>1800</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="6" t="s">
         <v>1801</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="4" t="s">
         <v>1802</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>1803</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>1804</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="7" t="s">
         <v>1805</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>1806</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -13696,28 +13690,28 @@
         <v>148</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>1807</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>1808</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="6" t="s">
         <v>1809</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="4" t="s">
         <v>1810</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>1811</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>1812</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="7" t="s">
         <v>1813</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>1814</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -13725,28 +13719,28 @@
         <v>158</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>1815</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>1816</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>1817</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>662</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>1817</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>1818</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>1819</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="I17" s="7" t="s">
         <v>1820</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>1821</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -13754,28 +13748,28 @@
         <v>168</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>508</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>1822</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>1823</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="4" t="s">
         <v>1824</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>1825</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>1826</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>1827</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>1828</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -13783,28 +13777,28 @@
         <v>178</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>1829</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="6" t="s">
         <v>1830</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>1831</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>1832</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>1833</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>1834</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="I19" s="7" t="s">
         <v>1835</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>1836</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -13812,25 +13806,25 @@
         <v>188</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>1837</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>1838</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>1839</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="4" t="s">
         <v>1840</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>1841</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>1842</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>1843</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>22</v>
@@ -13841,28 +13835,28 @@
         <v>198</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>1844</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="5" t="s">
         <v>1845</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="3" t="s">
         <v>1846</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="4" t="s">
         <v>1847</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>1848</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>1849</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="7" t="s">
         <v>1850</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>1851</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -13870,28 +13864,28 @@
         <v>208</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>1852</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="6" t="s">
         <v>1853</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="4" t="s">
         <v>1854</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>1855</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>1856</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>1857</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="I22" s="7" t="s">
         <v>1858</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>1859</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -13899,28 +13893,28 @@
         <v>218</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>1860</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="5" t="s">
         <v>1861</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="3" t="s">
         <v>1862</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="4" t="s">
         <v>1863</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>1864</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>1865</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="I23" s="7" t="s">
         <v>1866</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>1867</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -13928,28 +13922,28 @@
         <v>228</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>1868</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>1869</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="6" t="s">
         <v>1870</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="F24" s="4" t="s">
         <v>1871</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>1872</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>1873</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="I24" s="7" t="s">
         <v>1874</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>1875</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -13957,28 +13951,28 @@
         <v>238</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>1876</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="6" t="s">
         <v>1877</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="E25" s="4" t="s">
         <v>1878</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>1879</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>1880</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>1881</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="I25" s="7" t="s">
         <v>1882</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>1883</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -13986,28 +13980,28 @@
         <v>248</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>1884</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>1885</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>508</v>
       </c>
       <c r="E26" s="6" t="s">
+        <v>1885</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>1886</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>1887</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>1888</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="I26" s="4" t="s">
         <v>1889</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>1890</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -14015,28 +14009,28 @@
         <v>258</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>1891</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="5" t="s">
         <v>1892</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>1893</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>1340</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>1893</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>1894</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>1895</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="I27" s="7" t="s">
         <v>1896</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>1897</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -14044,28 +14038,28 @@
         <v>268</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>1898</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="D28" s="5" t="s">
         <v>1899</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="6" t="s">
         <v>1900</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="F28" s="4" t="s">
         <v>1901</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>1902</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>1903</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="I28" s="7" t="s">
         <v>1904</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>1905</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -14073,28 +14067,28 @@
         <v>278</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>1906</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>1907</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="6" t="s">
         <v>1908</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="F29" s="4" t="s">
         <v>1909</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>1910</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>1911</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="I29" s="7" t="s">
         <v>1912</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>1913</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -14102,28 +14096,28 @@
         <v>288</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>1914</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>1915</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="5" t="s">
         <v>1916</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="F30" s="4" t="s">
+        <v>1858</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>1917</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>1859</v>
-      </c>
-      <c r="G30" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>1918</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="I30" s="7" t="s">
         <v>1919</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>1920</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -14131,28 +14125,28 @@
         <v>298</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>1921</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="6" t="s">
         <v>1922</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="E31" s="4" t="s">
         <v>1923</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>1924</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>1925</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>1926</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="I31" s="7" t="s">
         <v>1927</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>1928</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -14160,28 +14154,28 @@
         <v>308</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>1929</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>1930</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>750</v>
       </c>
       <c r="E32" s="4" t="s">
+        <v>1930</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>1931</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>1932</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>1933</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="I32" s="7" t="s">
         <v>1934</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>1935</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -14189,25 +14183,25 @@
         <v>317</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>1937</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>1938</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="F33" s="3" t="s">
         <v>1939</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="G33" s="6" t="s">
         <v>1940</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="I33" s="4" t="s">
         <v>1941</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>1942</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -14215,25 +14209,25 @@
         <v>326</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>1943</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="4" t="s">
         <v>1944</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>1945</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="3" t="s">
         <v>1946</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="4" t="s">
         <v>1947</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="I34" s="4" t="s">
         <v>1948</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>1949</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -14241,25 +14235,25 @@
         <v>336</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>1950</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="6" t="s">
         <v>1951</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="E35" s="4" t="s">
         <v>1952</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="F35" s="3" t="s">
         <v>1953</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G35" s="4" t="s">
         <v>1954</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="I35" s="4" t="s">
         <v>1955</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>1956</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -14267,19 +14261,19 @@
         <v>345</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>156</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>1957</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>1958</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="F36" s="3" t="s">
         <v>1959</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>1960</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>741</v>
@@ -14293,25 +14287,25 @@
         <v>355</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>1961</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>1962</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>1963</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>1964</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="G37" s="6" t="s">
         <v>1965</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="I37" s="4" t="s">
         <v>1966</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>1967</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -14319,25 +14313,25 @@
         <v>365</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>1968</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>1969</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>1970</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="F38" s="3" t="s">
         <v>1971</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="5" t="s">
         <v>1972</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="I38" s="6" t="s">
         <v>1973</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>1974</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -14384,7 +14378,7 @@
         <v>393</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>395</v>
@@ -14442,39 +14436,39 @@
         <v>400</v>
       </c>
       <c r="B44" s="12" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C44" s="12" t="s">
         <v>1976</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="D44" s="12" t="s">
         <v>1977</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="E44" s="12" t="s">
         <v>1978</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="F44" s="12" t="s">
         <v>1979</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="G44" s="12" t="s">
         <v>1980</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="H44" s="12" t="s">
         <v>1981</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="I44" s="12" t="s">
         <v>1982</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>1983</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="24" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B45" s="24" t="s">
         <v>397</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D45" s="24" t="s">
         <v>399</v>
@@ -14500,28 +14494,28 @@
         <v>409</v>
       </c>
       <c r="B46" s="13" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>1986</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="D46" s="13" t="s">
         <v>1987</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="E46" s="13" t="s">
         <v>1988</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="F46" s="13" t="s">
         <v>1989</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="G46" s="13" t="s">
         <v>1990</v>
       </c>
-      <c r="G46" s="13" t="s">
+      <c r="H46" s="13" t="s">
         <v>1991</v>
       </c>
-      <c r="H46" s="13" t="s">
+      <c r="I46" s="13" t="s">
         <v>1992</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>1993</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -14545,7 +14539,7 @@
         <v>423</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
@@ -14561,7 +14555,7 @@
         <v>426</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
@@ -14577,7 +14571,7 @@
         <v>429</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
@@ -14593,7 +14587,7 @@
         <v>432</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
@@ -14609,7 +14603,7 @@
         <v>435</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
@@ -14625,7 +14619,7 @@
         <v>438</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
@@ -14641,7 +14635,7 @@
         <v>441</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
@@ -14657,7 +14651,7 @@
         <v>444</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
@@ -14673,7 +14667,7 @@
         <v>447</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>

--- a/output/time_trial_ranking.xlsx
+++ b/output/time_trial_ranking.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2718" uniqueCount="2045">
-  <si>
-    <t>06:50PM April 10, 2020</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2764" uniqueCount="2048">
+  <si>
+    <t>10:54PM April 10, 2020</t>
   </si>
   <si>
     <t>Rc_FIVE</t>
@@ -28,12 +28,12 @@
     <t>mati1212</t>
   </si>
   <si>
+    <t>Maties_Gamer</t>
+  </si>
+  <si>
     <t>JanneAhonen69</t>
   </si>
   <si>
-    <t>Maties_Gamer</t>
-  </si>
-  <si>
     <t>myjniak</t>
   </si>
   <si>
@@ -58,12 +58,12 @@
     <t>1:18.11</t>
   </si>
   <si>
+    <t>1:18.74</t>
+  </si>
+  <si>
     <t>1:18.87</t>
   </si>
   <si>
-    <t>1:18.74</t>
-  </si>
-  <si>
     <t>1:18.670</t>
   </si>
   <si>
@@ -88,12 +88,12 @@
     <t>1:54.41</t>
   </si>
   <si>
+    <t>1:55.78</t>
+  </si>
+  <si>
     <t>1:55.38</t>
   </si>
   <si>
-    <t>1:55.78</t>
-  </si>
-  <si>
     <t>1:57.310</t>
   </si>
   <si>
@@ -118,12 +118,12 @@
     <t>1:44.33</t>
   </si>
   <si>
+    <t>1:45.40</t>
+  </si>
+  <si>
     <t>1:45.97</t>
   </si>
   <si>
-    <t>1:45.40</t>
-  </si>
-  <si>
     <t>1:45.500</t>
   </si>
   <si>
@@ -148,12 +148,12 @@
     <t>1:14.470</t>
   </si>
   <si>
+    <t>1:14.50</t>
+  </si>
+  <si>
     <t>1:14.54</t>
   </si>
   <si>
-    <t>1:14.50</t>
-  </si>
-  <si>
     <t>1:15.270</t>
   </si>
   <si>
@@ -178,12 +178,12 @@
     <t>1:35.56</t>
   </si>
   <si>
+    <t>1:35.46</t>
+  </si>
+  <si>
     <t>1:38.24</t>
   </si>
   <si>
-    <t>1:35.46</t>
-  </si>
-  <si>
     <t>1:39.160</t>
   </si>
   <si>
@@ -208,12 +208,12 @@
     <t>1:29.824</t>
   </si>
   <si>
+    <t>1:30.650</t>
+  </si>
+  <si>
     <t>1:33.36</t>
   </si>
   <si>
-    <t>1:32.694</t>
-  </si>
-  <si>
     <t>1:33.050</t>
   </si>
   <si>
@@ -238,12 +238,12 @@
     <t>1:16.109</t>
   </si>
   <si>
+    <t>1:16.27</t>
+  </si>
+  <si>
     <t>1:17.77</t>
   </si>
   <si>
-    <t>1:16.27</t>
-  </si>
-  <si>
     <t>1:16.410</t>
   </si>
   <si>
@@ -268,12 +268,12 @@
     <t>1:25.785</t>
   </si>
   <si>
+    <t>1:29.48</t>
+  </si>
+  <si>
     <t>1:27.15</t>
   </si>
   <si>
-    <t>1:29.48</t>
-  </si>
-  <si>
     <t>1:28.420</t>
   </si>
   <si>
@@ -298,12 +298,12 @@
     <t>1:25.82</t>
   </si>
   <si>
+    <t>1:26.855</t>
+  </si>
+  <si>
     <t>1:24.78</t>
   </si>
   <si>
-    <t>1:26.855</t>
-  </si>
-  <si>
     <t>1:24.550</t>
   </si>
   <si>
@@ -328,12 +328,12 @@
     <t>1:26.421</t>
   </si>
   <si>
+    <t>1:28.256</t>
+  </si>
+  <si>
     <t>1:28.650</t>
   </si>
   <si>
-    <t>1:28.256</t>
-  </si>
-  <si>
     <t>1:28.750</t>
   </si>
   <si>
@@ -358,12 +358,12 @@
     <t>1:59.68</t>
   </si>
   <si>
+    <t>2:00.61</t>
+  </si>
+  <si>
     <t>1:59.720</t>
   </si>
   <si>
-    <t>2:00.61</t>
-  </si>
-  <si>
     <t>1:59.650</t>
   </si>
   <si>
@@ -388,12 +388,12 @@
     <t>2:53.240</t>
   </si>
   <si>
+    <t>2:58.37</t>
+  </si>
+  <si>
     <t>2:53.300</t>
   </si>
   <si>
-    <t>2:58.37</t>
-  </si>
-  <si>
     <t>2:55.000</t>
   </si>
   <si>
@@ -418,12 +418,12 @@
     <t>1:16.009</t>
   </si>
   <si>
+    <t>1:18.57</t>
+  </si>
+  <si>
     <t>1:17.91</t>
   </si>
   <si>
-    <t>1:18.57</t>
-  </si>
-  <si>
     <t>1:16.770</t>
   </si>
   <si>
@@ -445,12 +445,12 @@
     <t>1:10.571</t>
   </si>
   <si>
+    <t>1:10.337</t>
+  </si>
+  <si>
     <t>1:10.87</t>
   </si>
   <si>
-    <t>1:10.337</t>
-  </si>
-  <si>
     <t>1:10.700</t>
   </si>
   <si>
@@ -475,12 +475,12 @@
     <t>2:10.498</t>
   </si>
   <si>
+    <t>2:05.726</t>
+  </si>
+  <si>
     <t>2:08.56</t>
   </si>
   <si>
-    <t>2:05.726</t>
-  </si>
-  <si>
     <t>2:07.760</t>
   </si>
   <si>
@@ -505,12 +505,12 @@
     <t>1:51.980</t>
   </si>
   <si>
+    <t>1:49.610</t>
+  </si>
+  <si>
     <t>1:51.510</t>
   </si>
   <si>
-    <t>1:49.610</t>
-  </si>
-  <si>
     <t>1:51.010</t>
   </si>
   <si>
@@ -535,12 +535,12 @@
     <t>2:13.002</t>
   </si>
   <si>
+    <t>2:10.46</t>
+  </si>
+  <si>
     <t>2:10.490</t>
   </si>
   <si>
-    <t>2:10.46</t>
-  </si>
-  <si>
     <t>2:09.729</t>
   </si>
   <si>
@@ -565,12 +565,12 @@
     <t>2:41.095</t>
   </si>
   <si>
+    <t>2:41.29</t>
+  </si>
+  <si>
     <t>2:38.990</t>
   </si>
   <si>
-    <t>2:41.29</t>
-  </si>
-  <si>
     <t>2:39.890</t>
   </si>
   <si>
@@ -595,12 +595,12 @@
     <t>1:33.194</t>
   </si>
   <si>
+    <t>1:32.920</t>
+  </si>
+  <si>
     <t>1:33.090</t>
   </si>
   <si>
-    <t>1:33.26</t>
-  </si>
-  <si>
     <t>1:33.020</t>
   </si>
   <si>
@@ -625,12 +625,12 @@
     <t>1:13.676</t>
   </si>
   <si>
+    <t>1:13.100</t>
+  </si>
+  <si>
     <t>1:13.64</t>
   </si>
   <si>
-    <t>1:13.100</t>
-  </si>
-  <si>
     <t>1:13.240</t>
   </si>
   <si>
@@ -655,12 +655,12 @@
     <t>1:53.940</t>
   </si>
   <si>
+    <t>1:53.51</t>
+  </si>
+  <si>
     <t>1:54.44</t>
   </si>
   <si>
-    <t>1:53.51</t>
-  </si>
-  <si>
     <t>1:53.280</t>
   </si>
   <si>
@@ -685,12 +685,12 @@
     <t>2:29.551</t>
   </si>
   <si>
+    <t>2:28.94</t>
+  </si>
+  <si>
     <t>2:27.58</t>
   </si>
   <si>
-    <t>2:28.94</t>
-  </si>
-  <si>
     <t>2:27.540</t>
   </si>
   <si>
@@ -715,12 +715,12 @@
     <t>3:02.384</t>
   </si>
   <si>
+    <t>2:57.17</t>
+  </si>
+  <si>
     <t>2:59.440</t>
   </si>
   <si>
-    <t>2:57.17</t>
-  </si>
-  <si>
     <t>3:03.810</t>
   </si>
   <si>
@@ -745,12 +745,12 @@
     <t>1:39.267</t>
   </si>
   <si>
+    <t>1:39.06</t>
+  </si>
+  <si>
     <t>1:33.920</t>
   </si>
   <si>
-    <t>1:39.06</t>
-  </si>
-  <si>
     <t>1:38.990</t>
   </si>
   <si>
@@ -775,12 +775,12 @@
     <t>1:53.210</t>
   </si>
   <si>
+    <t>1:53.78</t>
+  </si>
+  <si>
     <t>1:50.540</t>
   </si>
   <si>
-    <t>1:53.78</t>
-  </si>
-  <si>
     <t>1:53.510</t>
   </si>
   <si>
@@ -802,12 +802,12 @@
     <t>1:37.760</t>
   </si>
   <si>
+    <t>1:38.66</t>
+  </si>
+  <si>
     <t>1:38.290</t>
   </si>
   <si>
-    <t>1:38.66</t>
-  </si>
-  <si>
     <t>1:37.930</t>
   </si>
   <si>
@@ -829,12 +829,12 @@
     <t>1:23.916</t>
   </si>
   <si>
+    <t>1:24.05</t>
+  </si>
+  <si>
     <t>1:22.91</t>
   </si>
   <si>
-    <t>1:24.05</t>
-  </si>
-  <si>
     <t>1:23.550</t>
   </si>
   <si>
@@ -859,12 +859,12 @@
     <t>1:42.604</t>
   </si>
   <si>
+    <t>1:42.70</t>
+  </si>
+  <si>
     <t>1:42.23</t>
   </si>
   <si>
-    <t>1:42.70</t>
-  </si>
-  <si>
     <t>1:42.830</t>
   </si>
   <si>
@@ -889,12 +889,12 @@
     <t>1:53.74</t>
   </si>
   <si>
+    <t>1:50.44</t>
+  </si>
+  <si>
     <t>1:51.110</t>
   </si>
   <si>
-    <t>1:50.44</t>
-  </si>
-  <si>
     <t>1:52.570</t>
   </si>
   <si>
@@ -919,12 +919,12 @@
     <t>2:24.413</t>
   </si>
   <si>
+    <t>2:24.34</t>
+  </si>
+  <si>
     <t>2:23.770</t>
   </si>
   <si>
-    <t>2:24.34</t>
-  </si>
-  <si>
     <t>2:24.910</t>
   </si>
   <si>
@@ -949,12 +949,12 @@
     <t>1:47.800</t>
   </si>
   <si>
+    <t>1:46.000</t>
+  </si>
+  <si>
     <t>1:46.570</t>
   </si>
   <si>
-    <t>1:46.000</t>
-  </si>
-  <si>
     <t>1:46.775</t>
   </si>
   <si>
@@ -973,12 +973,12 @@
     <t>2:11.633</t>
   </si>
   <si>
+    <t>2:11.890</t>
+  </si>
+  <si>
     <t>2:12.39</t>
   </si>
   <si>
-    <t>2:11.890</t>
-  </si>
-  <si>
     <t>2:11.060</t>
   </si>
   <si>
@@ -1000,12 +1000,12 @@
     <t>2:21.776</t>
   </si>
   <si>
+    <t>2:21.07</t>
+  </si>
+  <si>
     <t>2:20.70</t>
   </si>
   <si>
-    <t>2:21.07</t>
-  </si>
-  <si>
     <t>2:20.800</t>
   </si>
   <si>
@@ -1054,12 +1054,12 @@
     <t>1:49.042</t>
   </si>
   <si>
+    <t>1:48.87</t>
+  </si>
+  <si>
     <t>1:49.50</t>
   </si>
   <si>
-    <t>1:48.87</t>
-  </si>
-  <si>
     <t>1:49.240</t>
   </si>
   <si>
@@ -1084,12 +1084,12 @@
     <t>1:37.933</t>
   </si>
   <si>
+    <t>1:38.260</t>
+  </si>
+  <si>
     <t>1:39.23</t>
   </si>
   <si>
-    <t>1:38.260</t>
-  </si>
-  <si>
     <t>1:38.360</t>
   </si>
   <si>
@@ -1114,12 +1114,12 @@
     <t>1:52.010</t>
   </si>
   <si>
+    <t>1:52.57</t>
+  </si>
+  <si>
     <t>1:51.640</t>
   </si>
   <si>
-    <t>1:52.57</t>
-  </si>
-  <si>
     <t>1:51.880</t>
   </si>
   <si>
@@ -1144,12 +1144,12 @@
     <t>2:04.12</t>
   </si>
   <si>
+    <t>2:02.88</t>
+  </si>
+  <si>
     <t>2:04.15</t>
   </si>
   <si>
-    <t>2:02.88</t>
-  </si>
-  <si>
     <t>2:03.650</t>
   </si>
   <si>
@@ -1189,12 +1189,12 @@
     <t>4</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -1225,25 +1225,25 @@
     <t>366</t>
   </si>
   <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>121</t>
+    <t>177</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>120</t>
   </si>
   <si>
     <t>86</t>
@@ -1258,12 +1258,12 @@
     <t>71:38.051</t>
   </si>
   <si>
+    <t>71:34.904</t>
+  </si>
+  <si>
     <t>71:28.780</t>
   </si>
   <si>
-    <t>71:37.288</t>
-  </si>
-  <si>
     <t>71:46.779</t>
   </si>
   <si>
@@ -1294,81 +1294,81 @@
     <t>10p</t>
   </si>
   <si>
+    <t>Maties_Gamer gets BRONZE medal on Inferno Island!</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>8p</t>
+  </si>
+  <si>
+    <t>Maties_Gamer gets BRONZE medal on Turbo Track!</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>6p</t>
+  </si>
+  <si>
     <t>JanneAhonen69 gets SILVER medal on Thunder Struck!</t>
   </si>
   <si>
-    <t>2nd</t>
-  </si>
-  <si>
-    <t>8p</t>
+    <t>4th</t>
+  </si>
+  <si>
+    <t>5p</t>
   </si>
   <si>
     <t>myjniak gets BRONZE medal on Oxide Station!</t>
   </si>
   <si>
-    <t>3rd</t>
-  </si>
-  <si>
-    <t>6p</t>
+    <t>5th</t>
+  </si>
+  <si>
+    <t>4p</t>
   </si>
   <si>
     <t>myjniak gets SILVER medal on Polar Pass!</t>
   </si>
   <si>
-    <t>4th</t>
-  </si>
-  <si>
-    <t>5p</t>
+    <t>6th</t>
+  </si>
+  <si>
+    <t>3p</t>
   </si>
   <si>
     <t>JanneAhonen69 gets GOLD medal on Gingerbread Joyride!</t>
   </si>
   <si>
-    <t>5th</t>
-  </si>
-  <si>
-    <t>4p</t>
+    <t>7th</t>
+  </si>
+  <si>
+    <t>2p</t>
   </si>
   <si>
     <t>Rc_FIVE gets GOLD medal on Android Alley!</t>
   </si>
   <si>
-    <t>6th</t>
-  </si>
-  <si>
-    <t>3p</t>
+    <t>8th</t>
+  </si>
+  <si>
+    <t>1p</t>
   </si>
   <si>
     <t>Rc_FIVE gets GOLD medal on Hyper Spaceway!</t>
   </si>
   <si>
-    <t>7th</t>
-  </si>
-  <si>
-    <t>2p</t>
+    <t>&gt;8th</t>
+  </si>
+  <si>
+    <t>0p</t>
   </si>
   <si>
     <t>Rc_FIVE gets GOLD medal on Out of Time!</t>
   </si>
   <si>
-    <t>8th</t>
-  </si>
-  <si>
-    <t>1p</t>
-  </si>
-  <si>
-    <t>Rc_FIVE gets GOLD medal on Roo's Tubes!</t>
-  </si>
-  <si>
-    <t>&gt;8th</t>
-  </si>
-  <si>
-    <t>0p</t>
-  </si>
-  <si>
-    <t>Maties_Gamer gets SILVER medal on Cortex Castle!</t>
-  </si>
-  <si>
     <t>Beenox</t>
   </si>
   <si>
@@ -4816,6 +4816,9 @@
     <t>Madz910111</t>
   </si>
   <si>
+    <t>Wojtek_Pogromca</t>
+  </si>
+  <si>
     <t>cthulhuburi</t>
   </si>
   <si>
@@ -4852,6 +4855,9 @@
     <t>1:33.033</t>
   </si>
   <si>
+    <t>1:41.000</t>
+  </si>
+  <si>
     <t>2:06.928</t>
   </si>
   <si>
@@ -4951,6 +4957,9 @@
     <t>1:31.266</t>
   </si>
   <si>
+    <t>1:39.000</t>
+  </si>
+  <si>
     <t>2:00.390</t>
   </si>
   <si>
@@ -5728,9 +5737,6 @@
     <t>1:34.196</t>
   </si>
   <si>
-    <t>1:39.000</t>
-  </si>
-  <si>
     <t>1:45.273</t>
   </si>
   <si>
@@ -6136,6 +6142,12 @@
     <t>195:00.000</t>
   </si>
   <si>
+    <t>188:20.000</t>
+  </si>
+  <si>
+    <t>Wojtek_Pogromca entered the Sapphire Tier</t>
+  </si>
+  <si>
     <t>MEDYK-POLSKA entered the Sapphire Tier</t>
   </si>
   <si>
@@ -6149,9 +6161,6 @@
   </si>
   <si>
     <t>TendoFic gets SILVER medal on Oxide Station!</t>
-  </si>
-  <si>
-    <t>crashb1908mufc gets GOLD medal on Sewer Speedway!</t>
   </si>
 </sst>
 </file>
@@ -6792,10 +6801,10 @@
       <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -6856,10 +6865,10 @@
       <c r="C5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>44</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -6888,10 +6897,10 @@
       <c r="C6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>54</v>
       </c>
       <c r="F6" s="8" t="s">
@@ -6920,7 +6929,7 @@
       <c r="C7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>63</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -6929,7 +6938,7 @@
       <c r="F7" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>66</v>
       </c>
       <c r="H7" s="5" t="s">
@@ -6952,10 +6961,10 @@
       <c r="C8" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -6984,10 +6993,10 @@
       <c r="C9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>84</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -7016,10 +7025,10 @@
       <c r="C10" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>94</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -7112,10 +7121,10 @@
       <c r="C13" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="6" t="s">
         <v>124</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -7144,10 +7153,10 @@
       <c r="C14" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>134</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -7176,10 +7185,10 @@
       <c r="C15" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="7" t="s">
         <v>143</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -7208,10 +7217,10 @@
       <c r="C16" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>153</v>
       </c>
       <c r="F16" s="5" t="s">
@@ -7240,10 +7249,10 @@
       <c r="C17" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>163</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -7304,10 +7313,10 @@
       <c r="C19" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>183</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -7333,25 +7342,25 @@
       <c r="B20" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="5" t="s">
         <v>193</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="8" t="s">
         <v>195</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="5" t="s">
         <v>197</v>
       </c>
       <c r="J20" s="4" t="s">
@@ -7368,10 +7377,10 @@
       <c r="C21" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="7" t="s">
         <v>203</v>
       </c>
       <c r="F21" s="5" t="s">
@@ -7400,10 +7409,10 @@
       <c r="C22" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="7" t="s">
         <v>213</v>
       </c>
       <c r="F22" s="5" t="s">
@@ -7432,10 +7441,10 @@
       <c r="C23" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="6" t="s">
         <v>223</v>
       </c>
       <c r="F23" s="4" t="s">
@@ -7464,10 +7473,10 @@
       <c r="C24" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="5" t="s">
         <v>233</v>
       </c>
       <c r="F24" s="7" t="s">
@@ -7496,10 +7505,10 @@
       <c r="C25" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="3" t="s">
         <v>243</v>
       </c>
       <c r="F25" s="5" t="s">
@@ -7528,10 +7537,10 @@
       <c r="C26" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>253</v>
       </c>
       <c r="F26" s="5" t="s">
@@ -7560,10 +7569,10 @@
       <c r="C27" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="5" t="s">
         <v>262</v>
       </c>
       <c r="F27" s="4" t="s">
@@ -7576,7 +7585,7 @@
         <v>265</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J27" s="5" t="s">
         <v>266</v>
@@ -7592,10 +7601,10 @@
       <c r="C28" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="6" t="s">
         <v>271</v>
       </c>
       <c r="F28" s="5" t="s">
@@ -7624,10 +7633,10 @@
       <c r="C29" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="5" t="s">
         <v>281</v>
       </c>
       <c r="F29" s="8" t="s">
@@ -7656,10 +7665,10 @@
       <c r="C30" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="5" t="s">
         <v>291</v>
       </c>
       <c r="F30" s="5" t="s">
@@ -7688,10 +7697,10 @@
       <c r="C31" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>301</v>
       </c>
       <c r="F31" s="5" t="s">
@@ -7720,10 +7729,10 @@
       <c r="C32" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="6" t="s">
         <v>311</v>
       </c>
       <c r="F32" s="5" t="s">
@@ -7752,10 +7761,10 @@
       <c r="C33" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="8" t="s">
         <v>319</v>
       </c>
       <c r="F33" s="4" t="s">
@@ -7784,10 +7793,10 @@
       <c r="C34" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="6" t="s">
         <v>328</v>
       </c>
       <c r="F34" s="5" t="s">
@@ -7816,11 +7825,11 @@
       <c r="C35" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>320</v>
@@ -7848,10 +7857,10 @@
       <c r="C36" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="7" t="s">
         <v>346</v>
       </c>
       <c r="F36" s="5" t="s">
@@ -7880,10 +7889,10 @@
       <c r="C37" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="8" t="s">
         <v>356</v>
       </c>
       <c r="F37" s="5" t="s">
@@ -7912,10 +7921,10 @@
       <c r="C38" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="3" t="s">
         <v>366</v>
       </c>
       <c r="F38" s="5" t="s">
@@ -7944,10 +7953,10 @@
       <c r="C39" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="5" t="s">
         <v>376</v>
       </c>
       <c r="F39" s="5" t="s">
@@ -7976,11 +7985,11 @@
       <c r="C40" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>384</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>385</v>
@@ -8015,16 +8024,16 @@
         <v>391</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>392</v>
       </c>
       <c r="H41" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="I41" s="9" t="s">
         <v>390</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>391</v>
       </c>
       <c r="J41" s="9" t="s">
         <v>392</v>
@@ -8041,10 +8050,10 @@
         <v>395</v>
       </c>
       <c r="D42" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="E42" s="10" t="s">
         <v>389</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>396</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>397</v>
@@ -8053,13 +8062,13 @@
         <v>392</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>389</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -8067,28 +8076,28 @@
         <v>398</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>399</v>
       </c>
       <c r="D43" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="E43" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="E43" s="11" t="s">
-        <v>389</v>
-      </c>
       <c r="F43" s="11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G43" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="I43" s="11" t="s">
         <v>395</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>394</v>
       </c>
       <c r="J43" s="11" t="s">
         <v>399</v>
@@ -9304,7 +9313,7 @@
         <v>717</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>718</v>
@@ -9883,13 +9892,13 @@
         <v>389</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>392</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>399</v>
@@ -9898,10 +9907,10 @@
         <v>392</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -9921,22 +9930,22 @@
         <v>396</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>392</v>
       </c>
       <c r="H42" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="I42" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="I42" s="10" t="s">
-        <v>391</v>
-      </c>
       <c r="J42" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L42" s="10" t="s">
         <v>392</v>
@@ -9962,22 +9971,22 @@
         <v>394</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H43" s="11" t="s">
         <v>392</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J43" s="11" t="s">
         <v>392</v>
       </c>
       <c r="K43" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="L43" s="11" t="s">
         <v>391</v>
-      </c>
-      <c r="L43" s="11" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -10032,28 +10041,28 @@
         <v>392</v>
       </c>
       <c r="E45" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="F45" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="F45" s="25" t="s">
-        <v>391</v>
-      </c>
       <c r="G45" s="25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I45" s="25" t="s">
         <v>392</v>
       </c>
       <c r="J45" s="25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K45" s="25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L45" s="25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -12662,13 +12671,13 @@
         <v>399</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J41" s="9" t="s">
         <v>392</v>
@@ -12680,22 +12689,22 @@
         <v>392</v>
       </c>
       <c r="M41" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="N41" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="N41" s="9" t="s">
+      <c r="O41" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="O41" s="9" t="s">
-        <v>391</v>
-      </c>
       <c r="P41" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="R41" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="S41" s="9" t="s">
         <v>392</v>
@@ -12712,7 +12721,7 @@
         <v>395</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>389</v>
@@ -12724,7 +12733,7 @@
         <v>399</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>392</v>
@@ -12736,28 +12745,28 @@
         <v>392</v>
       </c>
       <c r="L42" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="M42" s="10" t="s">
         <v>391</v>
-      </c>
-      <c r="M42" s="10" t="s">
-        <v>390</v>
       </c>
       <c r="N42" s="10" t="s">
         <v>392</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P42" s="10" t="s">
         <v>392</v>
       </c>
       <c r="Q42" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="R42" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="R42" s="10" t="s">
-        <v>391</v>
-      </c>
       <c r="S42" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -12780,43 +12789,43 @@
         <v>392</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I43" s="11" t="s">
         <v>392</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L43" s="11" t="s">
         <v>392</v>
       </c>
       <c r="M43" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="N43" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="N43" s="11" t="s">
+      <c r="O43" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="O43" s="11" t="s">
+      <c r="P43" s="11" t="s">
         <v>390</v>
-      </c>
-      <c r="P43" s="11" t="s">
-        <v>391</v>
       </c>
       <c r="Q43" s="11" t="s">
         <v>392</v>
       </c>
       <c r="R43" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="S43" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -12913,25 +12922,25 @@
         <v>389</v>
       </c>
       <c r="L45" s="25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M45" s="25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N45" s="25" t="s">
         <v>396</v>
       </c>
       <c r="O45" s="25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P45" s="25" t="s">
         <v>396</v>
       </c>
       <c r="Q45" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="R45" s="25" t="s">
         <v>390</v>
-      </c>
-      <c r="R45" s="25" t="s">
-        <v>391</v>
       </c>
       <c r="S45" s="25" t="s">
         <v>1541</v>
@@ -13169,7 +13178,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -13184,7 +13193,7 @@
     <col min="2" max="101" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13230,93 +13239,99 @@
       <c r="O1" s="2" t="s">
         <v>1599</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="2" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>1603</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>1602</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>380</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>1612</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>380</v>
@@ -13324,46 +13339,49 @@
       <c r="O3" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>210</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>814</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>380</v>
@@ -13371,93 +13389,99 @@
       <c r="O4" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>969</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>380</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>1646</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1644</v>
+        <v>1647</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1645</v>
+        <v>1648</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1646</v>
+        <v>1649</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1647</v>
+        <v>1650</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>1648</v>
+        <v>1651</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1649</v>
+        <v>1652</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>1650</v>
+        <v>1653</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>1651</v>
+        <v>1654</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>1652</v>
+        <v>1655</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>1653</v>
+        <v>1656</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>1654</v>
+        <v>1657</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>1655</v>
+        <v>1658</v>
       </c>
       <c r="N6" s="8" t="s">
         <v>380</v>
@@ -13465,46 +13489,49 @@
       <c r="O6" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1656</v>
+        <v>1659</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1657</v>
+        <v>1660</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1658</v>
+        <v>1661</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>1659</v>
+        <v>1662</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1660</v>
+        <v>1663</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>1661</v>
+        <v>1664</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>1662</v>
+        <v>1665</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>1663</v>
+        <v>1666</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>1664</v>
+        <v>1667</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>1665</v>
+        <v>1668</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>1666</v>
+        <v>1669</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>1667</v>
+        <v>1670</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>380</v>
@@ -13512,46 +13539,49 @@
       <c r="O7" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1669</v>
+        <v>1672</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1670</v>
+        <v>1673</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1671</v>
+        <v>1674</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>1672</v>
+        <v>1675</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>1673</v>
+        <v>1676</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>1674</v>
+        <v>1677</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>1115</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>1675</v>
+        <v>1678</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>1676</v>
+        <v>1679</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>1066</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>1677</v>
+        <v>1680</v>
       </c>
       <c r="N8" s="8" t="s">
         <v>380</v>
@@ -13559,46 +13589,49 @@
       <c r="O8" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1678</v>
+        <v>1681</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1679</v>
+        <v>1682</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1680</v>
+        <v>1683</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>247</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>1681</v>
+        <v>1684</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>1682</v>
+        <v>1685</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>1683</v>
+        <v>1686</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>1684</v>
+        <v>1687</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>1685</v>
+        <v>1688</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>1686</v>
+        <v>1689</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>1687</v>
+        <v>1690</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>1688</v>
+        <v>1691</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>380</v>
@@ -13606,46 +13639,49 @@
       <c r="O9" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1689</v>
+        <v>1692</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1690</v>
+        <v>1693</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1692</v>
+        <v>1695</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>1693</v>
+        <v>1696</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>1694</v>
+        <v>1697</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>1695</v>
+        <v>1698</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>1696</v>
+        <v>1699</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>1304</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>1697</v>
+        <v>1700</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>1698</v>
+        <v>1701</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>1699</v>
+        <v>1702</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>380</v>
@@ -13653,46 +13689,49 @@
       <c r="O10" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1700</v>
+        <v>1703</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1701</v>
+        <v>1704</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1702</v>
+        <v>1705</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1703</v>
+        <v>1706</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>1704</v>
+        <v>1707</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1705</v>
+        <v>1708</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>1706</v>
+        <v>1709</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>1707</v>
+        <v>1710</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>1708</v>
+        <v>1711</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>1709</v>
+        <v>1712</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>1710</v>
+        <v>1713</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>1711</v>
+        <v>1714</v>
       </c>
       <c r="N11" s="8" t="s">
         <v>380</v>
@@ -13700,46 +13739,49 @@
       <c r="O11" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1712</v>
+        <v>1715</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1713</v>
+        <v>1716</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1714</v>
+        <v>1717</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1715</v>
+        <v>1718</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1716</v>
+        <v>1719</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>1718</v>
+        <v>1721</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>1719</v>
+        <v>1722</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>1720</v>
+        <v>1723</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>1721</v>
+        <v>1724</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>1722</v>
+        <v>1725</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>1723</v>
+        <v>1726</v>
       </c>
       <c r="N12" s="8" t="s">
         <v>380</v>
@@ -13747,46 +13789,49 @@
       <c r="O12" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1724</v>
+        <v>1727</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1725</v>
+        <v>1728</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1726</v>
+        <v>1729</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>1728</v>
+        <v>1731</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1729</v>
+        <v>1732</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>1730</v>
+        <v>1733</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1731</v>
+        <v>1734</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>1732</v>
+        <v>1735</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>1733</v>
+        <v>1736</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>1734</v>
+        <v>1737</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>1735</v>
+        <v>1738</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>380</v>
@@ -13794,16 +13839,19 @@
       <c r="O13" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1736</v>
+        <v>1739</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1737</v>
+        <v>1740</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>657</v>
@@ -13812,28 +13860,28 @@
         <v>191</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1738</v>
+        <v>1741</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="N14" s="8" t="s">
         <v>380</v>
@@ -13841,46 +13889,49 @@
       <c r="O14" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1747</v>
+        <v>1750</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>1243</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
       <c r="N15" s="8" t="s">
         <v>380</v>
@@ -13888,46 +13939,49 @@
       <c r="O15" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>1758</v>
+        <v>1761</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1760</v>
+        <v>1763</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>1763</v>
+        <v>1766</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>1765</v>
+        <v>1768</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>1766</v>
+        <v>1769</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
       <c r="N16" s="8" t="s">
         <v>380</v>
@@ -13935,46 +13989,49 @@
       <c r="O16" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>1768</v>
+        <v>1771</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1769</v>
+        <v>1772</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>1771</v>
+        <v>1774</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>1772</v>
+        <v>1775</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>1773</v>
+        <v>1776</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>1774</v>
+        <v>1777</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>1146</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>1775</v>
+        <v>1778</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>1776</v>
+        <v>1779</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>1777</v>
+        <v>1780</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>1778</v>
+        <v>1781</v>
       </c>
       <c r="N17" s="8" t="s">
         <v>380</v>
@@ -13982,46 +14039,49 @@
       <c r="O17" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1779</v>
+        <v>1782</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1780</v>
+        <v>1783</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>1781</v>
+        <v>1784</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>499</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1782</v>
+        <v>1785</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>1783</v>
+        <v>1786</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>1784</v>
+        <v>1787</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>1786</v>
+        <v>1789</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>1787</v>
+        <v>1790</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>1788</v>
+        <v>1791</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>1789</v>
+        <v>1792</v>
       </c>
       <c r="N18" s="8" t="s">
         <v>380</v>
@@ -14029,46 +14089,49 @@
       <c r="O18" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1790</v>
+        <v>1793</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1791</v>
+        <v>1794</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>1792</v>
+        <v>1795</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>1793</v>
+        <v>1796</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>1794</v>
+        <v>1797</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>1795</v>
+        <v>1798</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>1801</v>
+        <v>1804</v>
       </c>
       <c r="N19" s="8" t="s">
         <v>380</v>
@@ -14076,46 +14139,49 @@
       <c r="O19" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1803</v>
+        <v>1806</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>1805</v>
+        <v>1808</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>1807</v>
+        <v>1810</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>1808</v>
+        <v>1811</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>1809</v>
+        <v>1812</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>1810</v>
+        <v>1813</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>1811</v>
+        <v>1814</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>1813</v>
+        <v>1816</v>
       </c>
       <c r="N20" s="8" t="s">
         <v>380</v>
@@ -14123,46 +14189,49 @@
       <c r="O20" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1814</v>
+        <v>1817</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1815</v>
+        <v>1818</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>1816</v>
+        <v>1819</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>1817</v>
+        <v>1820</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>1818</v>
+        <v>1821</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1819</v>
+        <v>1822</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>1820</v>
+        <v>1823</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>1821</v>
+        <v>1824</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>1822</v>
+        <v>1825</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>1823</v>
+        <v>1826</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>1824</v>
+        <v>1827</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>1825</v>
+        <v>1828</v>
       </c>
       <c r="N21" s="8" t="s">
         <v>380</v>
@@ -14170,46 +14239,49 @@
       <c r="O21" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1826</v>
+        <v>1829</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>801</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1827</v>
+        <v>1830</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>1828</v>
+        <v>1831</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>1829</v>
+        <v>1832</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>1830</v>
+        <v>1833</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>1831</v>
+        <v>1834</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>1832</v>
+        <v>1835</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>1833</v>
+        <v>1836</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>1834</v>
+        <v>1837</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>1835</v>
+        <v>1838</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>1836</v>
+        <v>1839</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>380</v>
@@ -14217,46 +14289,49 @@
       <c r="O22" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1837</v>
+        <v>1840</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>1838</v>
+        <v>1841</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1839</v>
+        <v>1842</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>1840</v>
+        <v>1843</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>1841</v>
+        <v>1844</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1842</v>
+        <v>1845</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>1843</v>
+        <v>1846</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>1844</v>
+        <v>1847</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>1845</v>
+        <v>1848</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>1846</v>
+        <v>1849</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>1847</v>
+        <v>1850</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>1848</v>
+        <v>1851</v>
       </c>
       <c r="N23" s="8" t="s">
         <v>380</v>
@@ -14264,46 +14339,49 @@
       <c r="O23" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1849</v>
+        <v>1852</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1850</v>
+        <v>1853</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>1851</v>
+        <v>1854</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>1853</v>
+        <v>1856</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>1854</v>
+        <v>1857</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>1855</v>
+        <v>1858</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>1856</v>
+        <v>1859</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>1857</v>
+        <v>1860</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>1858</v>
+        <v>1861</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>1859</v>
+        <v>1862</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>1860</v>
+        <v>1863</v>
       </c>
       <c r="N24" s="8" t="s">
         <v>380</v>
@@ -14311,46 +14389,49 @@
       <c r="O24" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1861</v>
+        <v>1864</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1862</v>
+        <v>1865</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>1863</v>
+        <v>1866</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>1864</v>
+        <v>1867</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>1865</v>
+        <v>1868</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>1866</v>
+        <v>1869</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>1867</v>
+        <v>1870</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>1868</v>
+        <v>1871</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>1869</v>
+        <v>1872</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>1870</v>
+        <v>1873</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>1871</v>
+        <v>1874</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>1872</v>
+        <v>1875</v>
       </c>
       <c r="N25" s="8" t="s">
         <v>380</v>
@@ -14358,46 +14439,49 @@
       <c r="O25" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="1" t="s">
         <v>249</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1873</v>
+        <v>1876</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1874</v>
+        <v>1877</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1876</v>
+        <v>1879</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>1877</v>
+        <v>1880</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1878</v>
+        <v>1881</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>499</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>1879</v>
+        <v>1882</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>1880</v>
+        <v>1883</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>1881</v>
+        <v>1884</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>1882</v>
+        <v>1885</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>1883</v>
+        <v>1886</v>
       </c>
       <c r="N26" s="8" t="s">
         <v>380</v>
@@ -14405,46 +14489,49 @@
       <c r="O26" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1884</v>
+        <v>1887</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1885</v>
+        <v>1888</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>1886</v>
+        <v>1889</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1887</v>
+        <v>1890</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>1888</v>
+        <v>1891</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>1889</v>
+        <v>1892</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>1890</v>
+        <v>1893</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>1230</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>1891</v>
+        <v>1894</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>1892</v>
+        <v>1895</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>1893</v>
+        <v>1896</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>1894</v>
+        <v>1897</v>
       </c>
       <c r="N27" s="8" t="s">
         <v>380</v>
@@ -14452,46 +14539,49 @@
       <c r="O27" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
         <v>267</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1895</v>
+        <v>1898</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1896</v>
+        <v>1899</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1898</v>
+        <v>1901</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>1899</v>
+        <v>1902</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>1901</v>
+        <v>1904</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>1902</v>
+        <v>1905</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>1903</v>
+        <v>1646</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>1904</v>
+        <v>1906</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>1905</v>
+        <v>1907</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>1906</v>
+        <v>1908</v>
       </c>
       <c r="N28" s="8" t="s">
         <v>380</v>
@@ -14499,46 +14589,49 @@
       <c r="O28" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
         <v>277</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1907</v>
+        <v>1909</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>1908</v>
+        <v>1910</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>1909</v>
+        <v>1911</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>1910</v>
+        <v>1912</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>1911</v>
+        <v>1913</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1912</v>
+        <v>1914</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>1913</v>
+        <v>1915</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>1914</v>
+        <v>1916</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>1915</v>
+        <v>1917</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>1917</v>
+        <v>1919</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>1918</v>
+        <v>1920</v>
       </c>
       <c r="N29" s="8" t="s">
         <v>380</v>
@@ -14546,46 +14639,49 @@
       <c r="O29" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
         <v>287</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1919</v>
+        <v>1921</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>1920</v>
+        <v>1922</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1921</v>
+        <v>1923</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>1922</v>
+        <v>1924</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>1923</v>
+        <v>1925</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>1925</v>
+        <v>1927</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>1835</v>
+        <v>1838</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>1928</v>
+        <v>1930</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>1929</v>
+        <v>1931</v>
       </c>
       <c r="N30" s="8" t="s">
         <v>380</v>
@@ -14593,46 +14689,49 @@
       <c r="O30" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="P30" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
         <v>297</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>1931</v>
+        <v>1933</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>1934</v>
+        <v>1936</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>1936</v>
+        <v>1938</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>1938</v>
+        <v>1940</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>1939</v>
+        <v>1941</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>1940</v>
+        <v>1942</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>1941</v>
+        <v>1943</v>
       </c>
       <c r="N31" s="8" t="s">
         <v>380</v>
@@ -14640,46 +14739,49 @@
       <c r="O31" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="P31" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
         <v>307</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1942</v>
+        <v>1944</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>1943</v>
+        <v>1945</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>1944</v>
+        <v>1946</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>1945</v>
+        <v>1947</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>1946</v>
+        <v>1948</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>1947</v>
+        <v>1949</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>690</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>1948</v>
+        <v>1950</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>1950</v>
+        <v>1952</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>1951</v>
+        <v>1953</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>1952</v>
+        <v>1954</v>
       </c>
       <c r="N32" s="8" t="s">
         <v>380</v>
@@ -14687,43 +14789,46 @@
       <c r="O32" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="P32" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
         <v>315</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>1954</v>
+        <v>1956</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>1082</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>1959</v>
+        <v>1961</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>1960</v>
+        <v>1962</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>1961</v>
+        <v>1963</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>1962</v>
+        <v>1964</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>380</v>
@@ -14734,43 +14839,46 @@
       <c r="O33" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="P33" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="1" t="s">
         <v>324</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>1963</v>
+        <v>1965</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>1964</v>
+        <v>1966</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>1967</v>
+        <v>1969</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>1968</v>
+        <v>1970</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>1969</v>
+        <v>1971</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>1970</v>
+        <v>1972</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>1971</v>
+        <v>1973</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>1972</v>
+        <v>1974</v>
       </c>
       <c r="M34" s="8" t="s">
         <v>380</v>
@@ -14781,40 +14889,43 @@
       <c r="O34" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="P34" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="1" t="s">
         <v>334</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>1973</v>
+        <v>1975</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>1974</v>
+        <v>1976</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1975</v>
+        <v>1977</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>1976</v>
+        <v>1978</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>1977</v>
+        <v>1979</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>1978</v>
+        <v>1980</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>1979</v>
+        <v>1981</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>1980</v>
+        <v>1982</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>1982</v>
+        <v>1984</v>
       </c>
       <c r="L35" s="8" t="s">
         <v>1190</v>
@@ -14828,37 +14939,40 @@
       <c r="O35" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="P35" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="1" t="s">
         <v>342</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>1984</v>
+        <v>1986</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>1987</v>
+        <v>1989</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>380</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>1988</v>
+        <v>1990</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>1989</v>
+        <v>1991</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>1248</v>
@@ -14875,43 +14989,46 @@
       <c r="O36" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="P36" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="1" t="s">
         <v>352</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>945</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>380</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>380</v>
@@ -14922,43 +15039,46 @@
       <c r="O37" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="P37" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="1" t="s">
         <v>362</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>380</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>380</v>
@@ -14969,8 +15089,11 @@
       <c r="O38" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="P38" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="1" t="s">
         <v>372</v>
       </c>
@@ -14999,13 +15122,13 @@
         <v>380</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>380</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="M39" s="5" t="s">
         <v>380</v>
@@ -15016,8 +15139,11 @@
       <c r="O39" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="P39" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="1" t="s">
         <v>381</v>
       </c>
@@ -15046,13 +15172,13 @@
         <v>380</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="K40" s="8" t="s">
         <v>380</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="M40" s="5" t="s">
         <v>380</v>
@@ -15063,8 +15189,11 @@
       <c r="O40" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="P40" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" s="9" t="s">
         <v>387</v>
       </c>
@@ -15081,13 +15210,13 @@
         <v>397</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>395</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>392</v>
@@ -15096,22 +15225,25 @@
         <v>399</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O41" s="9" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>390</v>
+      </c>
+      <c r="P41" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" s="10" t="s">
         <v>393</v>
       </c>
@@ -15137,28 +15269,31 @@
         <v>397</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J42" s="10" t="s">
         <v>392</v>
       </c>
       <c r="K42" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="L42" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="L42" s="10" t="s">
+      <c r="M42" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="M42" s="10" t="s">
-        <v>391</v>
-      </c>
       <c r="N42" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>390</v>
+      </c>
+      <c r="P42" s="10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" s="11" t="s">
         <v>398</v>
       </c>
@@ -15184,63 +15319,66 @@
         <v>392</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J43" s="11" t="s">
         <v>392</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O43" s="11" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>390</v>
+      </c>
+      <c r="P43" s="11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" s="12" t="s">
         <v>400</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="K44" s="12" t="s">
         <v>1553</v>
       </c>
       <c r="L44" s="12" t="s">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="M44" s="12" t="s">
         <v>1541</v>
@@ -15249,12 +15387,15 @@
         <v>389</v>
       </c>
       <c r="O44" s="12" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+        <v>390</v>
+      </c>
+      <c r="P44" s="12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" s="25" t="s">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="B45" s="25" t="s">
         <v>1560</v>
@@ -15263,28 +15404,28 @@
         <v>853</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E45" s="25" t="s">
         <v>397</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="H45" s="25" t="s">
         <v>399</v>
       </c>
       <c r="I45" s="25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J45" s="25" t="s">
         <v>1558</v>
       </c>
       <c r="K45" s="25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L45" s="25" t="s">
         <v>855</v>
@@ -15296,57 +15437,63 @@
         <v>389</v>
       </c>
       <c r="O45" s="25" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <v>390</v>
+      </c>
+      <c r="P45" s="25" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" s="1" t="s">
         <v>410</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>2027</v>
+        <v>2029</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>2029</v>
+        <v>2031</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>2030</v>
+        <v>2032</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>2031</v>
+        <v>2033</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>2032</v>
+        <v>2034</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>2033</v>
+        <v>2035</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>2034</v>
+        <v>2036</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>2035</v>
+        <v>2037</v>
       </c>
       <c r="L46" s="13" t="s">
-        <v>2036</v>
+        <v>2038</v>
       </c>
       <c r="M46" s="13" t="s">
-        <v>2037</v>
+        <v>2039</v>
       </c>
       <c r="N46" s="13" t="s">
-        <v>2038</v>
+        <v>2040</v>
       </c>
       <c r="O46" s="13" t="s">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>2041</v>
+      </c>
+      <c r="P46" s="13" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" s="14" t="s">
         <v>420</v>
       </c>
@@ -15367,7 +15514,7 @@
         <v>424</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>2039</v>
+        <v>2042</v>
       </c>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
@@ -15383,7 +15530,7 @@
         <v>427</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>2039</v>
+        <v>2043</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
@@ -15399,7 +15546,7 @@
         <v>430</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>2040</v>
+        <v>2043</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
@@ -15415,7 +15562,7 @@
         <v>433</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>2041</v>
+        <v>2044</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
@@ -15431,7 +15578,7 @@
         <v>436</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>2042</v>
+        <v>2045</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
@@ -15447,7 +15594,7 @@
         <v>439</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>2043</v>
+        <v>2046</v>
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
@@ -15463,7 +15610,7 @@
         <v>442</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>2040</v>
+        <v>2047</v>
       </c>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
@@ -15479,7 +15626,7 @@
         <v>445</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>2041</v>
+        <v>2044</v>
       </c>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
@@ -15495,7 +15642,7 @@
         <v>448</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>

--- a/output/time_trial_ranking.xlsx
+++ b/output/time_trial_ranking.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="1985">
-  <si>
-    <t>12.04.2020 23:59</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="1984">
+  <si>
+    <t>12.04.2020 22:59</t>
   </si>
   <si>
     <t>Rc_FIVE</t>
@@ -358,7 +358,7 @@
     <t>1:59.68</t>
   </si>
   <si>
-    <t>2:00.61</t>
+    <t>1:59.780</t>
   </si>
   <si>
     <t>1:59.720</t>
@@ -445,7 +445,7 @@
     <t>1:10.571</t>
   </si>
   <si>
-    <t>1:10.337</t>
+    <t>1:09.230</t>
   </si>
   <si>
     <t>1:10.87</t>
@@ -802,7 +802,7 @@
     <t>1:37.760</t>
   </si>
   <si>
-    <t>1:38.66</t>
+    <t>1:38.030</t>
   </si>
   <si>
     <t>1:38.290</t>
@@ -1201,7 +1201,7 @@
     <t>71:38.051</t>
   </si>
   <si>
-    <t>71:34.904</t>
+    <t>71:32.337</t>
   </si>
   <si>
     <t>71:28.780</t>
@@ -1237,79 +1237,76 @@
     <t>10p</t>
   </si>
   <si>
+    <t>Maties_Gamer gets SILVER medal on Blizzard Bluff!</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>8p</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>6p</t>
+  </si>
+  <si>
     <t>silVersilVa89PL gets BRONZE medal on Crash Cove!</t>
   </si>
   <si>
-    <t>2nd</t>
-  </si>
-  <si>
-    <t>8p</t>
+    <t>4th</t>
+  </si>
+  <si>
+    <t>5p</t>
   </si>
   <si>
     <t>mati1212 gets SILVER medal on Crash Cove!</t>
   </si>
   <si>
-    <t>3rd</t>
-  </si>
-  <si>
-    <t>6p</t>
+    <t>5th</t>
+  </si>
+  <si>
+    <t>4p</t>
   </si>
   <si>
     <t>Rc_FIVE gets GOLD medal on Crash Cove!</t>
   </si>
   <si>
-    <t>4th</t>
-  </si>
-  <si>
-    <t>5p</t>
+    <t>6th</t>
+  </si>
+  <si>
+    <t>3p</t>
   </si>
   <si>
     <t>myjniak gets GOLD medal on Crash Cove!</t>
   </si>
   <si>
-    <t>5th</t>
-  </si>
-  <si>
-    <t>4p</t>
+    <t>7th</t>
+  </si>
+  <si>
+    <t>2p</t>
   </si>
   <si>
     <t>Maties_Gamer gets BRONZE medal on Inferno Island!</t>
   </si>
   <si>
-    <t>6th</t>
-  </si>
-  <si>
-    <t>3p</t>
+    <t>8th</t>
+  </si>
+  <si>
+    <t>1p</t>
   </si>
   <si>
     <t>Maties_Gamer gets BRONZE medal on Turbo Track!</t>
   </si>
   <si>
-    <t>7th</t>
-  </si>
-  <si>
-    <t>2p</t>
+    <t>&gt;8th</t>
+  </si>
+  <si>
+    <t>0p</t>
   </si>
   <si>
     <t>JanneAhonen69 gets SILVER medal on Thunder Struck!</t>
-  </si>
-  <si>
-    <t>8th</t>
-  </si>
-  <si>
-    <t>1p</t>
-  </si>
-  <si>
-    <t>myjniak gets BRONZE medal on Oxide Station!</t>
-  </si>
-  <si>
-    <t>&gt;8th</t>
-  </si>
-  <si>
-    <t>0p</t>
-  </si>
-  <si>
-    <t>myjniak gets SILVER medal on Polar Pass!</t>
   </si>
   <si>
     <t>Beenox</t>
@@ -5978,7 +5975,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6030,6 +6027,14 @@
       <b/>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6198,16 +6203,16 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6222,13 +6227,13 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6992,13 +6997,13 @@
       <c r="A15" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>140</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>142</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -7007,7 +7012,7 @@
       <c r="F15" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>145</v>
       </c>
       <c r="H15" s="5" t="s">
@@ -7382,7 +7387,7 @@
       <c r="C27" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="5" t="s">
         <v>261</v>
       </c>
       <c r="E27" s="5" t="s">
@@ -7391,10 +7396,10 @@
       <c r="F27" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="7" t="s">
         <v>265</v>
       </c>
       <c r="I27" s="5" t="s">
@@ -7857,13 +7862,13 @@
         <v>388</v>
       </c>
       <c r="B42" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42" s="10">
         <v>7</v>
       </c>
       <c r="D42" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E42" s="10">
         <v>4</v>
@@ -7889,7 +7894,7 @@
         <v>389</v>
       </c>
       <c r="B43" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43" s="11">
         <v>3</v>
@@ -7904,7 +7909,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H43" s="11">
         <v>2</v>
@@ -7921,31 +7926,31 @@
         <v>390</v>
       </c>
       <c r="B44" s="12">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C44" s="12">
         <v>177</v>
       </c>
       <c r="D44" s="12">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E44" s="12">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F44" s="12">
         <v>156</v>
       </c>
       <c r="G44" s="12">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H44" s="12">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I44" s="12">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J44" s="12">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -8017,119 +8022,119 @@
         <v>408</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B51" s="20" t="s">
         <v>404</v>
       </c>
       <c r="C51" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="E51" s="18" t="s">
         <v>411</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>412</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B52" s="21" t="s">
         <v>404</v>
       </c>
       <c r="C52" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="E52" s="18" t="s">
         <v>414</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>415</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B53" s="21" t="s">
         <v>404</v>
       </c>
       <c r="C53" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="E53" s="18" t="s">
         <v>417</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>418</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B54" s="21" t="s">
         <v>404</v>
       </c>
       <c r="C54" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="E54" s="18" t="s">
         <v>420</v>
-      </c>
-      <c r="E54" s="18" t="s">
-        <v>421</v>
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B55" s="21" t="s">
         <v>404</v>
       </c>
       <c r="C55" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="E55" s="18" t="s">
         <v>423</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>424</v>
       </c>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B56" s="22" t="s">
         <v>404</v>
       </c>
       <c r="C56" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="E56" s="18" t="s">
         <v>426</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>427</v>
       </c>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B57" s="23" t="s">
         <v>404</v>
       </c>
       <c r="C57" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="E57" s="18" t="s">
         <v>429</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>430</v>
       </c>
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
@@ -8173,37 +8178,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -8211,37 +8216,37 @@
         <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>450</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8249,37 +8254,37 @@
         <v>20</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="5" t="s">
         <v>461</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -8287,37 +8292,37 @@
         <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="8" t="s">
         <v>472</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -8325,37 +8330,37 @@
         <v>40</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="K5" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="4" t="s">
         <v>483</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -8363,37 +8368,37 @@
         <v>50</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="K6" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="L6" s="8" t="s">
         <v>494</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -8401,37 +8406,37 @@
         <v>60</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="J7" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="L7" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8439,37 +8444,37 @@
         <v>70</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="L8" s="8" t="s">
         <v>515</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8477,37 +8482,37 @@
         <v>80</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="K9" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="L9" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -8515,37 +8520,37 @@
         <v>90</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="J10" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="L10" s="8" t="s">
         <v>537</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8553,37 +8558,37 @@
         <v>100</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="K11" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L11" s="8" t="s">
         <v>546</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8591,37 +8596,37 @@
         <v>110</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="I12" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="J12" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="K12" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="L12" s="8" t="s">
         <v>557</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -8629,37 +8634,37 @@
         <v>120</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="I13" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="J13" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="K13" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="L13" s="7" t="s">
         <v>568</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -8667,37 +8672,37 @@
         <v>130</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="J14" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="K14" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="8" t="s">
         <v>579</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -8705,37 +8710,37 @@
         <v>139</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="F15" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="I15" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="K15" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="L15" s="8" t="s">
         <v>590</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -8743,37 +8748,37 @@
         <v>149</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="8" t="s">
         <v>593</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="E16" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="G16" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="I16" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="J16" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="K16" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="6" t="s">
         <v>601</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -8781,37 +8786,37 @@
         <v>159</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="8" t="s">
         <v>608</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="I17" s="8" t="s">
         <v>609</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="J17" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="K17" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="L17" s="8" t="s">
         <v>612</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -8819,37 +8824,37 @@
         <v>169</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="8" t="s">
         <v>619</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="I18" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="J18" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>622</v>
-      </c>
       <c r="K18" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -8857,37 +8862,37 @@
         <v>179</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="8" t="s">
         <v>624</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="E19" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="I19" s="8" t="s">
         <v>629</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="J19" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="K19" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="5" t="s">
         <v>632</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -8895,37 +8900,37 @@
         <v>189</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="8" t="s">
         <v>638</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="H20" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="I20" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="8" t="s">
         <v>641</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="K20" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="L20" s="8" t="s">
         <v>643</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -8933,37 +8938,37 @@
         <v>199</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="G21" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="H21" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="J21" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="K21" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="8" t="s">
         <v>654</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -8971,37 +8976,37 @@
         <v>209</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="F22" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="H22" s="8" t="s">
         <v>661</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="I22" s="8" t="s">
         <v>662</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="J22" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="K22" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="L22" s="8" t="s">
         <v>664</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -9009,37 +9014,37 @@
         <v>219</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="E23" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="G23" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="H23" s="8" t="s">
         <v>671</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="I23" s="5" t="s">
         <v>672</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="J23" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="8" t="s">
         <v>674</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="L23" s="8" t="s">
         <v>675</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -9047,37 +9052,37 @@
         <v>229</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="5" t="s">
         <v>680</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="H24" s="8" t="s">
         <v>682</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="I24" s="8" t="s">
         <v>683</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="J24" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="K24" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="6" t="s">
         <v>686</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -9085,37 +9090,37 @@
         <v>239</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="6" t="s">
         <v>690</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="H25" s="8" t="s">
         <v>692</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="I25" s="8" t="s">
         <v>693</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="J25" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="L25" s="8" t="s">
         <v>696</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -9123,37 +9128,37 @@
         <v>249</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="G26" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="H26" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="I26" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="I26" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>704</v>
-      </c>
       <c r="K26" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -9161,37 +9166,37 @@
         <v>258</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="G27" s="8" t="s">
         <v>709</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="H27" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="I27" s="8" t="s">
         <v>711</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="J27" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="K27" s="8" t="s">
         <v>713</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="L27" s="7" t="s">
         <v>714</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -9199,37 +9204,37 @@
         <v>267</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="G28" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="H28" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="I28" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="J28" s="8" t="s">
         <v>723</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="K28" s="8" t="s">
         <v>724</v>
       </c>
-      <c r="K28" s="8" t="s">
+      <c r="L28" s="8" t="s">
         <v>725</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -9237,37 +9242,37 @@
         <v>277</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="H29" s="8" t="s">
         <v>732</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="I29" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="J29" s="8" t="s">
         <v>734</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="K29" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="L29" s="8" t="s">
         <v>735</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -9275,37 +9280,37 @@
         <v>287</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="5" t="s">
         <v>738</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="6" t="s">
         <v>739</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>740</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="H30" s="8" t="s">
         <v>742</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="I30" s="8" t="s">
         <v>743</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="J30" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="L30" s="8" t="s">
         <v>746</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -9313,37 +9318,37 @@
         <v>297</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>752</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="H31" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="I31" s="8" t="s">
         <v>754</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="J31" s="8" t="s">
         <v>755</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="K31" s="7" t="s">
         <v>756</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="8" t="s">
         <v>757</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -9351,37 +9356,37 @@
         <v>307</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="6" t="s">
         <v>761</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="F32" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="H32" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="I32" s="8" t="s">
         <v>765</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="J32" s="7" t="s">
         <v>766</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="K32" s="8" t="s">
         <v>767</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="L32" s="8" t="s">
         <v>768</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -9389,37 +9394,37 @@
         <v>315</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="G33" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="H33" s="8" t="s">
         <v>775</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="I33" s="8" t="s">
         <v>776</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="J33" s="8" t="s">
         <v>777</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="K33" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="L33" s="7" t="s">
         <v>779</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -9427,37 +9432,37 @@
         <v>324</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="4" t="s">
         <v>782</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="5" t="s">
         <v>783</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="F34" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="G34" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="H34" s="8" t="s">
         <v>786</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="I34" s="7" t="s">
         <v>787</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="J34" s="8" t="s">
         <v>788</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="K34" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="L34" s="5" t="s">
         <v>790</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -9465,34 +9470,34 @@
         <v>334</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="F35" s="6" t="s">
         <v>795</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="G35" s="7" t="s">
         <v>796</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="H35" s="8" t="s">
         <v>797</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="I35" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="I35" s="8" t="s">
+      <c r="J35" s="5" t="s">
         <v>799</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="K35" s="5" t="s">
         <v>800</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>801</v>
       </c>
       <c r="L35" s="8" t="s">
         <v>380</v>
@@ -9503,34 +9508,34 @@
         <v>342</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="5" t="s">
         <v>804</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>806</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="H36" s="8" t="s">
         <v>807</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="I36" s="8" t="s">
         <v>808</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="J36" s="7" t="s">
         <v>809</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="K36" s="5" t="s">
         <v>810</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>811</v>
       </c>
       <c r="L36" s="8" t="s">
         <v>380</v>
@@ -9541,34 +9546,34 @@
         <v>352</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>812</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="5" t="s">
         <v>814</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="F37" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="G37" s="8" t="s">
         <v>816</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="H37" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="I37" s="8" t="s">
         <v>818</v>
       </c>
-      <c r="I37" s="8" t="s">
+      <c r="J37" s="7" t="s">
         <v>819</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="K37" s="5" t="s">
         <v>820</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>821</v>
       </c>
       <c r="L37" s="8" t="s">
         <v>380</v>
@@ -9579,34 +9584,34 @@
         <v>362</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="5" t="s">
         <v>824</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="F38" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="G38" s="5" t="s">
         <v>826</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="H38" s="8" t="s">
         <v>827</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="I38" s="8" t="s">
         <v>828</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="J38" s="7" t="s">
         <v>829</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="K38" s="5" t="s">
         <v>830</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>831</v>
       </c>
       <c r="L38" s="8" t="s">
         <v>380</v>
@@ -9617,7 +9622,7 @@
         <v>372</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>380</v>
@@ -9655,7 +9660,7 @@
         <v>381</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>380</v>
@@ -9842,7 +9847,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="25" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B45" s="25">
         <v>3</v>
@@ -9883,37 +9888,37 @@
         <v>391</v>
       </c>
       <c r="B46" s="13" t="s">
+        <v>834</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>835</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="D46" s="13" t="s">
         <v>836</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="E46" s="13" t="s">
         <v>837</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="F46" s="13" t="s">
         <v>838</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="G46" s="13" t="s">
         <v>839</v>
       </c>
-      <c r="G46" s="13" t="s">
+      <c r="H46" s="13" t="s">
         <v>840</v>
       </c>
-      <c r="H46" s="13" t="s">
+      <c r="I46" s="13" t="s">
         <v>841</v>
       </c>
-      <c r="I46" s="13" t="s">
+      <c r="J46" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="J46" s="13" t="s">
+      <c r="K46" s="13" t="s">
         <v>843</v>
       </c>
-      <c r="K46" s="13" t="s">
+      <c r="L46" s="13" t="s">
         <v>844</v>
-      </c>
-      <c r="L46" s="13" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -9937,7 +9942,7 @@
         <v>405</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
@@ -9953,119 +9958,119 @@
         <v>408</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B51" s="20" t="s">
         <v>404</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B52" s="21" t="s">
         <v>404</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B53" s="21" t="s">
         <v>404</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B54" s="21" t="s">
         <v>404</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B55" s="21" t="s">
         <v>404</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B56" s="22" t="s">
         <v>404</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B57" s="23" t="s">
         <v>404</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
@@ -10109,58 +10114,58 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="24" t="s">
         <v>858</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>870</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -10168,58 +10173,58 @@
         <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>872</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>873</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="8" t="s">
         <v>874</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="8" t="s">
         <v>876</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="6" t="s">
         <v>878</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="8" t="s">
         <v>879</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>880</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>881</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>882</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="5" t="s">
         <v>883</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>884</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>878</v>
-      </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="8" t="s">
         <v>885</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>886</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>887</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10227,58 +10232,58 @@
         <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>889</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>890</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>891</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>892</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="8" t="s">
         <v>893</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>894</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="4" t="s">
         <v>895</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="8" t="s">
         <v>896</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>897</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>898</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="5" t="s">
         <v>900</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="7" t="s">
         <v>901</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="P3" s="8" t="s">
         <v>902</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="Q3" s="8" t="s">
         <v>903</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="R3" s="8" t="s">
         <v>904</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="S3" s="8" t="s">
         <v>905</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10286,58 +10291,58 @@
         <v>30</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>908</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>909</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="8" t="s">
         <v>910</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>911</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>912</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>913</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>914</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="L4" s="8" t="s">
         <v>915</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="5" t="s">
         <v>916</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="8" t="s">
         <v>917</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="O4" s="7" t="s">
         <v>918</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="8" t="s">
         <v>919</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="Q4" s="8" t="s">
         <v>920</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="R4" s="8" t="s">
         <v>921</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="S4" s="5" t="s">
         <v>922</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10345,58 +10350,58 @@
         <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>924</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>925</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>926</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>927</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>928</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>570</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="5" t="s">
         <v>929</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="8" t="s">
         <v>930</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="K5" s="8" t="s">
         <v>931</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="L5" s="8" t="s">
         <v>932</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="M5" s="4" t="s">
         <v>933</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="8" t="s">
         <v>934</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="O5" s="7" t="s">
         <v>935</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="8" t="s">
         <v>936</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="Q5" s="8" t="s">
         <v>937</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="R5" s="8" t="s">
         <v>938</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="S5" s="8" t="s">
         <v>939</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10404,58 +10409,58 @@
         <v>50</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>941</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="8" t="s">
         <v>942</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="5" t="s">
         <v>943</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>944</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>945</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>166</v>
       </c>
       <c r="H6" s="8" t="s">
+        <v>945</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>946</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="J6" s="8" t="s">
         <v>947</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="K6" s="4" t="s">
         <v>948</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="7" t="s">
         <v>949</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="8" t="s">
         <v>950</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="N6" s="8" t="s">
         <v>951</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="O6" s="5" t="s">
         <v>952</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="P6" s="5" t="s">
         <v>953</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="Q6" s="8" t="s">
         <v>954</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="R6" s="8" t="s">
         <v>955</v>
       </c>
-      <c r="R6" s="8" t="s">
+      <c r="S6" s="8" t="s">
         <v>956</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -10463,58 +10468,58 @@
         <v>60</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>958</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>959</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>960</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="3" t="s">
         <v>961</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="8" t="s">
         <v>962</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>963</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>964</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="8" t="s">
         <v>965</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="K7" s="5" t="s">
         <v>966</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="8" t="s">
         <v>967</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>968</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="N7" s="8" t="s">
         <v>969</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="O7" s="5" t="s">
         <v>970</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="P7" s="5" t="s">
         <v>971</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="Q7" s="8" t="s">
         <v>972</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="R7" s="8" t="s">
         <v>973</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="S7" s="8" t="s">
         <v>974</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -10522,58 +10527,58 @@
         <v>70</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>976</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="8" t="s">
         <v>977</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>978</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>981</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="5" t="s">
         <v>982</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="8" t="s">
         <v>983</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="K8" s="8" t="s">
         <v>984</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="L8" s="5" t="s">
         <v>985</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="8" t="s">
         <v>986</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="N8" s="8" t="s">
         <v>987</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="O8" s="6" t="s">
         <v>988</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="P8" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="Q8" s="8" t="s">
         <v>989</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>878</v>
-      </c>
-      <c r="Q8" s="8" t="s">
+      <c r="R8" s="5" t="s">
         <v>990</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="S8" s="8" t="s">
         <v>991</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -10581,58 +10586,58 @@
         <v>80</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>992</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>993</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>994</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="8" t="s">
         <v>995</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="4" t="s">
         <v>996</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="8" t="s">
         <v>997</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="H9" s="5" t="s">
         <v>998</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="8" t="s">
         <v>999</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="J9" s="5" t="s">
         <v>1000</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="K9" s="8" t="s">
         <v>1001</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="L9" s="8" t="s">
         <v>1002</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="M9" s="3" t="s">
         <v>1003</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="8" t="s">
         <v>1004</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="O9" s="5" t="s">
         <v>1005</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="P9" s="8" t="s">
         <v>1006</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="Q9" s="8" t="s">
         <v>1007</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="R9" s="5" t="s">
         <v>1008</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="S9" s="8" t="s">
         <v>1009</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -10640,58 +10645,58 @@
         <v>90</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>1011</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>1012</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>1013</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="7" t="s">
         <v>1014</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="5" t="s">
         <v>1015</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="8" t="s">
         <v>1016</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="I10" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="L10" s="8" t="s">
         <v>1019</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="M10" s="8" t="s">
         <v>1020</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="N10" s="8" t="s">
         <v>1021</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="O10" s="8" t="s">
         <v>1022</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="P10" s="6" t="s">
         <v>1023</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="Q10" s="8" t="s">
         <v>1024</v>
       </c>
-      <c r="Q10" s="8" t="s">
+      <c r="R10" s="8" t="s">
         <v>1025</v>
       </c>
-      <c r="R10" s="8" t="s">
+      <c r="S10" s="8" t="s">
         <v>1026</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -10699,58 +10704,58 @@
         <v>100</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>1028</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>1030</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="5" t="s">
         <v>1031</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="7" t="s">
         <v>1032</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="I11" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>1033</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="J11" s="8" t="s">
+      <c r="K11" s="8" t="s">
         <v>1034</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="L11" s="8" t="s">
         <v>1035</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="M11" s="8" t="s">
         <v>1036</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="N11" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="O11" s="5" t="s">
         <v>1037</v>
       </c>
-      <c r="N11" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="O11" s="5" t="s">
+      <c r="P11" s="6" t="s">
         <v>1038</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="Q11" s="8" t="s">
         <v>1039</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="R11" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="R11" s="8" t="s">
+      <c r="S11" s="8" t="s">
         <v>1041</v>
-      </c>
-      <c r="S11" s="8" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -10758,58 +10763,58 @@
         <v>110</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>1043</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="7" t="s">
         <v>1044</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>1045</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>1046</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="8" t="s">
         <v>1047</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="4" t="s">
         <v>1048</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" s="8" t="s">
         <v>1050</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="K12" s="8" t="s">
         <v>1051</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="L12" s="5" t="s">
         <v>1052</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="M12" s="8" t="s">
         <v>1053</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="N12" s="8" t="s">
         <v>1054</v>
       </c>
-      <c r="N12" s="8" t="s">
+      <c r="O12" s="8" t="s">
         <v>1055</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="P12" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="P12" s="8" t="s">
+      <c r="Q12" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="Q12" s="8" t="s">
+      <c r="R12" s="8" t="s">
         <v>1058</v>
       </c>
-      <c r="R12" s="8" t="s">
+      <c r="S12" s="8" t="s">
         <v>1059</v>
-      </c>
-      <c r="S12" s="8" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -10817,58 +10822,58 @@
         <v>120</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>1061</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>1062</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>1063</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="5" t="s">
         <v>1064</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="8" t="s">
         <v>1065</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="H13" s="5" t="s">
         <v>1066</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="7" t="s">
         <v>1067</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="J13" s="8" t="s">
         <v>1068</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="K13" s="8" t="s">
         <v>1069</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="L13" s="8" t="s">
         <v>1070</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="M13" s="8" t="s">
         <v>1071</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="N13" s="8" t="s">
         <v>1072</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="O13" s="8" t="s">
         <v>1073</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="P13" s="5" t="s">
         <v>1074</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="Q13" s="8" t="s">
         <v>1075</v>
       </c>
-      <c r="Q13" s="8" t="s">
+      <c r="R13" s="8" t="s">
         <v>1076</v>
       </c>
-      <c r="R13" s="8" t="s">
+      <c r="S13" s="8" t="s">
         <v>1077</v>
-      </c>
-      <c r="S13" s="8" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -10876,58 +10881,58 @@
         <v>130</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>1079</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>1080</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="3" t="s">
         <v>1081</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="8" t="s">
         <v>1082</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>1083</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="4" t="s">
         <v>1084</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="8" t="s">
         <v>1085</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="J14" s="8" t="s">
         <v>1086</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="K14" s="8" t="s">
         <v>1087</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="L14" s="8" t="s">
         <v>1088</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="M14" s="8" t="s">
         <v>1089</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="N14" s="8" t="s">
         <v>1090</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="O14" s="8" t="s">
         <v>1091</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="P14" s="5" t="s">
         <v>1092</v>
       </c>
-      <c r="P14" s="5" t="s">
+      <c r="Q14" s="8" t="s">
         <v>1093</v>
       </c>
-      <c r="Q14" s="8" t="s">
+      <c r="R14" s="5" t="s">
         <v>1094</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="S14" s="8" t="s">
         <v>1095</v>
-      </c>
-      <c r="S14" s="8" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -10935,58 +10940,58 @@
         <v>139</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>1097</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>1098</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>1099</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="8" t="s">
         <v>1100</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="G15" s="8" t="s">
         <v>1101</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>1102</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="I15" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>1103</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>888</v>
-      </c>
-      <c r="J15" s="8" t="s">
+      <c r="K15" s="8" t="s">
         <v>1104</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="L15" s="8" t="s">
         <v>1105</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="M15" s="5" t="s">
         <v>1106</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="N15" s="8" t="s">
         <v>1107</v>
       </c>
-      <c r="N15" s="8" t="s">
+      <c r="O15" s="8" t="s">
         <v>1108</v>
       </c>
-      <c r="O15" s="8" t="s">
+      <c r="P15" s="5" t="s">
         <v>1109</v>
       </c>
-      <c r="P15" s="5" t="s">
+      <c r="Q15" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="R15" s="8" t="s">
         <v>1110</v>
       </c>
-      <c r="Q15" s="4" t="s">
-        <v>926</v>
-      </c>
-      <c r="R15" s="8" t="s">
+      <c r="S15" s="8" t="s">
         <v>1111</v>
-      </c>
-      <c r="S15" s="8" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -10994,58 +10999,58 @@
         <v>149</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>1113</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="3" t="s">
         <v>1114</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="5" t="s">
         <v>1115</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="8" t="s">
         <v>1116</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="G16" s="5" t="s">
         <v>1117</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="8" t="s">
         <v>1118</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="I16" s="8" t="s">
         <v>1119</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="J16" s="5" t="s">
         <v>1120</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="K16" s="8" t="s">
         <v>1121</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="L16" s="8" t="s">
         <v>1122</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="M16" s="8" t="s">
         <v>1123</v>
       </c>
-      <c r="M16" s="8" t="s">
+      <c r="N16" s="5" t="s">
         <v>1124</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="O16" s="8" t="s">
         <v>1125</v>
       </c>
-      <c r="O16" s="8" t="s">
+      <c r="P16" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="P16" s="8" t="s">
+      <c r="Q16" s="8" t="s">
         <v>1127</v>
       </c>
-      <c r="Q16" s="8" t="s">
+      <c r="R16" s="7" t="s">
         <v>1128</v>
       </c>
-      <c r="R16" s="7" t="s">
+      <c r="S16" s="8" t="s">
         <v>1129</v>
-      </c>
-      <c r="S16" s="8" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -11053,58 +11058,58 @@
         <v>159</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>1131</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>1132</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="6" t="s">
         <v>1133</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>1134</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>1135</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="7" t="s">
         <v>1136</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="I17" s="8" t="s">
         <v>1137</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="J17" s="8" t="s">
         <v>1138</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="K17" s="8" t="s">
         <v>1139</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="L17" s="8" t="s">
         <v>1140</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="M17" s="8" t="s">
         <v>1141</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="N17" s="8" t="s">
         <v>1142</v>
       </c>
-      <c r="N17" s="8" t="s">
+      <c r="O17" s="8" t="s">
         <v>1143</v>
       </c>
-      <c r="O17" s="8" t="s">
+      <c r="P17" s="5" t="s">
         <v>1144</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="Q17" s="8" t="s">
         <v>1145</v>
       </c>
-      <c r="Q17" s="8" t="s">
+      <c r="R17" s="8" t="s">
         <v>1146</v>
       </c>
-      <c r="R17" s="8" t="s">
+      <c r="S17" s="8" t="s">
         <v>1147</v>
-      </c>
-      <c r="S17" s="8" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -11112,58 +11117,58 @@
         <v>169</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="D18" s="6" t="s">
         <v>1150</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>1151</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="8" t="s">
         <v>1152</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="H18" s="5" t="s">
         <v>1153</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="I18" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="J18" s="8" t="s">
         <v>1154</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="J18" s="8" t="s">
+      <c r="K18" s="7" t="s">
         <v>1155</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="8" t="s">
         <v>1156</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="M18" s="5" t="s">
         <v>1157</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="N18" s="4" t="s">
         <v>1158</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="O18" s="8" t="s">
         <v>1159</v>
       </c>
-      <c r="O18" s="8" t="s">
+      <c r="P18" s="8" t="s">
         <v>1160</v>
       </c>
-      <c r="P18" s="8" t="s">
+      <c r="Q18" s="8" t="s">
         <v>1161</v>
       </c>
-      <c r="Q18" s="8" t="s">
+      <c r="R18" s="8" t="s">
         <v>1162</v>
       </c>
-      <c r="R18" s="8" t="s">
+      <c r="S18" s="3" t="s">
         <v>1163</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -11171,58 +11176,58 @@
         <v>179</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>1165</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>1166</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="7" t="s">
         <v>1167</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="5" t="s">
         <v>1168</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="8" t="s">
         <v>1169</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="I19" s="5" t="s">
         <v>1170</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="J19" s="8" t="s">
+        <v>1169</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>1171</v>
       </c>
-      <c r="J19" s="8" t="s">
-        <v>1170</v>
-      </c>
-      <c r="K19" s="8" t="s">
+      <c r="L19" s="8" t="s">
         <v>1172</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="M19" s="8" t="s">
         <v>1173</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="N19" s="5" t="s">
         <v>1174</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="O19" s="8" t="s">
         <v>1175</v>
       </c>
-      <c r="O19" s="8" t="s">
+      <c r="P19" s="8" t="s">
         <v>1176</v>
       </c>
-      <c r="P19" s="8" t="s">
+      <c r="Q19" s="8" t="s">
         <v>1177</v>
       </c>
-      <c r="Q19" s="8" t="s">
+      <c r="R19" s="8" t="s">
         <v>1178</v>
       </c>
-      <c r="R19" s="8" t="s">
+      <c r="S19" s="8" t="s">
         <v>1179</v>
-      </c>
-      <c r="S19" s="8" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -11230,58 +11235,58 @@
         <v>189</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>1181</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>1182</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="8" t="s">
         <v>1183</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>1184</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="G20" s="8" t="s">
         <v>1185</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="H20" s="3" t="s">
         <v>1186</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="5" t="s">
         <v>1187</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="J20" s="6" t="s">
         <v>1188</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="K20" s="5" t="s">
         <v>1189</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>1190</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>358</v>
       </c>
       <c r="M20" s="8" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N20" s="8" t="s">
         <v>1191</v>
       </c>
-      <c r="N20" s="8" t="s">
+      <c r="O20" s="8" t="s">
         <v>1192</v>
       </c>
-      <c r="O20" s="8" t="s">
+      <c r="P20" s="8" t="s">
         <v>1193</v>
       </c>
-      <c r="P20" s="8" t="s">
+      <c r="Q20" s="8" t="s">
         <v>1194</v>
       </c>
-      <c r="Q20" s="8" t="s">
+      <c r="R20" s="8" t="s">
         <v>1195</v>
       </c>
-      <c r="R20" s="8" t="s">
+      <c r="S20" s="8" t="s">
         <v>1196</v>
-      </c>
-      <c r="S20" s="8" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -11289,58 +11294,58 @@
         <v>199</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>1198</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="6" t="s">
         <v>1199</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>1201</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="G21" s="7" t="s">
         <v>1202</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="8" t="s">
         <v>1203</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="I21" s="8" t="s">
         <v>1204</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="J21" s="8" t="s">
+        <v>1098</v>
+      </c>
+      <c r="K21" s="8" t="s">
         <v>1205</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>1099</v>
-      </c>
-      <c r="K21" s="8" t="s">
+      <c r="L21" s="5" t="s">
         <v>1206</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="M21" s="8" t="s">
         <v>1207</v>
       </c>
-      <c r="M21" s="8" t="s">
+      <c r="N21" s="8" t="s">
         <v>1208</v>
       </c>
-      <c r="N21" s="8" t="s">
+      <c r="O21" s="8" t="s">
         <v>1209</v>
       </c>
-      <c r="O21" s="8" t="s">
+      <c r="P21" s="8" t="s">
         <v>1210</v>
       </c>
-      <c r="P21" s="8" t="s">
+      <c r="Q21" s="4" t="s">
         <v>1211</v>
       </c>
-      <c r="Q21" s="4" t="s">
+      <c r="R21" s="8" t="s">
         <v>1212</v>
       </c>
-      <c r="R21" s="8" t="s">
+      <c r="S21" s="8" t="s">
         <v>1213</v>
-      </c>
-      <c r="S21" s="8" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -11348,58 +11353,58 @@
         <v>209</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>1215</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>1216</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="4" t="s">
         <v>1217</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="5" t="s">
         <v>1218</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>1219</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="H22" s="8" t="s">
         <v>1220</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="I22" s="8" t="s">
         <v>1221</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="J22" s="8" t="s">
         <v>1222</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="K22" s="7" t="s">
         <v>1223</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="8" t="s">
         <v>1224</v>
       </c>
-      <c r="L22" s="8" t="s">
+      <c r="M22" s="8" t="s">
         <v>1225</v>
       </c>
-      <c r="M22" s="8" t="s">
+      <c r="N22" s="5" t="s">
         <v>1226</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="O22" s="8" t="s">
         <v>1227</v>
       </c>
-      <c r="O22" s="8" t="s">
+      <c r="P22" s="8" t="s">
         <v>1228</v>
       </c>
-      <c r="P22" s="8" t="s">
+      <c r="Q22" s="8" t="s">
         <v>1229</v>
       </c>
-      <c r="Q22" s="8" t="s">
+      <c r="R22" s="8" t="s">
         <v>1230</v>
       </c>
-      <c r="R22" s="8" t="s">
+      <c r="S22" s="8" t="s">
         <v>1231</v>
-      </c>
-      <c r="S22" s="8" t="s">
-        <v>1232</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -11407,58 +11412,58 @@
         <v>219</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>1233</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" s="5" t="s">
         <v>1234</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>1235</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="8" t="s">
         <v>1236</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="G23" s="8" t="s">
         <v>1237</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="H23" s="8" t="s">
         <v>1238</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="I23" s="3" t="s">
         <v>1239</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" s="7" t="s">
         <v>1240</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="5" t="s">
         <v>1241</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="L23" s="6" t="s">
         <v>1242</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="M23" s="8" t="s">
         <v>1243</v>
       </c>
-      <c r="M23" s="8" t="s">
+      <c r="N23" s="8" t="s">
         <v>1244</v>
       </c>
-      <c r="N23" s="8" t="s">
+      <c r="O23" s="8" t="s">
         <v>1245</v>
       </c>
-      <c r="O23" s="8" t="s">
+      <c r="P23" s="8" t="s">
         <v>1246</v>
       </c>
-      <c r="P23" s="8" t="s">
+      <c r="Q23" s="8" t="s">
         <v>1247</v>
       </c>
-      <c r="Q23" s="8" t="s">
+      <c r="R23" s="8" t="s">
         <v>1248</v>
       </c>
-      <c r="R23" s="8" t="s">
+      <c r="S23" s="5" t="s">
         <v>1249</v>
-      </c>
-      <c r="S23" s="5" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -11466,58 +11471,58 @@
         <v>229</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>1251</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>1252</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="E24" s="6" t="s">
+      <c r="F24" s="8" t="s">
         <v>1253</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="G24" s="8" t="s">
         <v>1254</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="H24" s="7" t="s">
         <v>1255</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="I24" s="3" t="s">
         <v>1256</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="8" t="s">
         <v>1257</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="K24" s="8" t="s">
         <v>1258</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="L24" s="8" t="s">
         <v>1259</v>
       </c>
-      <c r="L24" s="8" t="s">
+      <c r="M24" s="8" t="s">
         <v>1260</v>
       </c>
-      <c r="M24" s="8" t="s">
+      <c r="N24" s="5" t="s">
         <v>1261</v>
       </c>
-      <c r="N24" s="5" t="s">
+      <c r="O24" s="5" t="s">
         <v>1262</v>
       </c>
-      <c r="O24" s="5" t="s">
+      <c r="P24" s="8" t="s">
         <v>1263</v>
       </c>
-      <c r="P24" s="8" t="s">
+      <c r="Q24" s="8" t="s">
         <v>1264</v>
       </c>
-      <c r="Q24" s="8" t="s">
+      <c r="R24" s="8" t="s">
         <v>1265</v>
       </c>
-      <c r="R24" s="8" t="s">
+      <c r="S24" s="5" t="s">
         <v>1266</v>
-      </c>
-      <c r="S24" s="5" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -11525,58 +11530,58 @@
         <v>239</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>1268</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="E25" s="3" t="s">
         <v>1270</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="5" t="s">
         <v>1271</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>1272</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="H25" s="8" t="s">
         <v>1273</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="I25" s="5" t="s">
         <v>1274</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="J25" s="8" t="s">
+        <v>974</v>
+      </c>
+      <c r="K25" s="8" t="s">
         <v>1275</v>
       </c>
-      <c r="J25" s="8" t="s">
-        <v>975</v>
-      </c>
-      <c r="K25" s="8" t="s">
+      <c r="L25" s="8" t="s">
         <v>1276</v>
       </c>
-      <c r="L25" s="8" t="s">
+      <c r="M25" s="8" t="s">
         <v>1277</v>
       </c>
-      <c r="M25" s="8" t="s">
+      <c r="N25" s="7" t="s">
         <v>1278</v>
       </c>
-      <c r="N25" s="7" t="s">
+      <c r="O25" s="8" t="s">
         <v>1279</v>
       </c>
-      <c r="O25" s="8" t="s">
+      <c r="P25" s="8" t="s">
         <v>1280</v>
       </c>
-      <c r="P25" s="8" t="s">
+      <c r="Q25" s="8" t="s">
         <v>1281</v>
       </c>
-      <c r="Q25" s="8" t="s">
+      <c r="R25" s="8" t="s">
         <v>1282</v>
       </c>
-      <c r="R25" s="8" t="s">
+      <c r="S25" s="8" t="s">
         <v>1283</v>
-      </c>
-      <c r="S25" s="8" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -11584,58 +11589,58 @@
         <v>249</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>1285</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="D26" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>1286</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="3" t="s">
         <v>1287</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="5" t="s">
         <v>1288</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="H26" s="8" t="s">
         <v>1289</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="I26" s="8" t="s">
         <v>1290</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="J26" s="5" t="s">
         <v>1291</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="K26" s="5" t="s">
         <v>1292</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="L26" s="4" t="s">
         <v>1293</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="M26" s="8" t="s">
         <v>1294</v>
       </c>
-      <c r="M26" s="8" t="s">
+      <c r="N26" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="O26" s="8" t="s">
         <v>1295</v>
       </c>
-      <c r="N26" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="O26" s="8" t="s">
+      <c r="P26" s="8" t="s">
         <v>1296</v>
       </c>
-      <c r="P26" s="8" t="s">
+      <c r="Q26" s="8" t="s">
         <v>1297</v>
       </c>
-      <c r="Q26" s="8" t="s">
+      <c r="R26" s="8" t="s">
         <v>1298</v>
       </c>
-      <c r="R26" s="8" t="s">
+      <c r="S26" s="8" t="s">
         <v>1299</v>
-      </c>
-      <c r="S26" s="8" t="s">
-        <v>1300</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -11643,58 +11648,58 @@
         <v>258</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>1301</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="6" t="s">
         <v>1302</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="E27" s="8" t="s">
         <v>1303</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="F27" s="5" t="s">
         <v>1304</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="G27" s="8" t="s">
         <v>1305</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="H27" s="5" t="s">
         <v>1306</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="I27" s="5" t="s">
         <v>1307</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="J27" s="5" t="s">
         <v>1308</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="K27" s="8" t="s">
         <v>1309</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="L27" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>1193</v>
+      </c>
+      <c r="N27" s="8" t="s">
         <v>1310</v>
       </c>
-      <c r="L27" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>1194</v>
-      </c>
-      <c r="N27" s="8" t="s">
+      <c r="O27" s="8" t="s">
         <v>1311</v>
       </c>
-      <c r="O27" s="8" t="s">
+      <c r="P27" s="8" t="s">
         <v>1312</v>
       </c>
-      <c r="P27" s="8" t="s">
+      <c r="Q27" s="8" t="s">
         <v>1313</v>
       </c>
-      <c r="Q27" s="8" t="s">
+      <c r="R27" s="8" t="s">
         <v>1314</v>
       </c>
-      <c r="R27" s="8" t="s">
+      <c r="S27" s="8" t="s">
         <v>1315</v>
-      </c>
-      <c r="S27" s="8" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -11702,58 +11707,58 @@
         <v>267</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>1317</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="D28" s="5" t="s">
         <v>1318</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>1319</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>1320</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="G28" s="8" t="s">
         <v>1321</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="H28" s="8" t="s">
         <v>1322</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="I28" s="8" t="s">
         <v>1323</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="J28" s="5" t="s">
         <v>1324</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="K28" s="7" t="s">
         <v>1325</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="6" t="s">
         <v>1326</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="M28" s="8" t="s">
         <v>1327</v>
       </c>
-      <c r="M28" s="8" t="s">
+      <c r="N28" s="8" t="s">
         <v>1328</v>
       </c>
-      <c r="N28" s="8" t="s">
+      <c r="O28" s="8" t="s">
         <v>1329</v>
       </c>
-      <c r="O28" s="8" t="s">
+      <c r="P28" s="8" t="s">
         <v>1330</v>
       </c>
-      <c r="P28" s="8" t="s">
+      <c r="Q28" s="8" t="s">
         <v>1331</v>
       </c>
-      <c r="Q28" s="8" t="s">
+      <c r="R28" s="8" t="s">
         <v>1332</v>
       </c>
-      <c r="R28" s="8" t="s">
+      <c r="S28" s="8" t="s">
         <v>1333</v>
-      </c>
-      <c r="S28" s="8" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -11761,58 +11766,58 @@
         <v>277</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>1335</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>1336</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>1337</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="8" t="s">
         <v>1338</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="G29" s="8" t="s">
         <v>1339</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="H29" s="8" t="s">
         <v>1340</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="I29" s="8" t="s">
         <v>1341</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="J29" s="5" t="s">
         <v>1342</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="K29" s="7" t="s">
         <v>1343</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="4" t="s">
         <v>1344</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="M29" s="8" t="s">
         <v>1345</v>
       </c>
-      <c r="M29" s="8" t="s">
+      <c r="N29" s="8" t="s">
         <v>1346</v>
       </c>
-      <c r="N29" s="8" t="s">
+      <c r="O29" s="8" t="s">
         <v>1347</v>
       </c>
-      <c r="O29" s="8" t="s">
+      <c r="P29" s="8" t="s">
         <v>1348</v>
       </c>
-      <c r="P29" s="8" t="s">
+      <c r="Q29" s="5" t="s">
         <v>1349</v>
       </c>
-      <c r="Q29" s="5" t="s">
+      <c r="R29" s="8" t="s">
         <v>1350</v>
       </c>
-      <c r="R29" s="8" t="s">
+      <c r="S29" s="8" t="s">
         <v>1351</v>
-      </c>
-      <c r="S29" s="8" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -11820,58 +11825,58 @@
         <v>287</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>1353</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="3" t="s">
         <v>1354</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="6" t="s">
         <v>1355</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="F30" s="7" t="s">
         <v>1356</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="5" t="s">
         <v>1357</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="H30" s="8" t="s">
         <v>1358</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="I30" s="8" t="s">
         <v>1359</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="J30" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="K30" s="5" t="s">
         <v>1360</v>
       </c>
-      <c r="J30" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="K30" s="5" t="s">
+      <c r="L30" s="8" t="s">
         <v>1361</v>
       </c>
-      <c r="L30" s="8" t="s">
+      <c r="M30" s="8" t="s">
         <v>1362</v>
       </c>
-      <c r="M30" s="8" t="s">
+      <c r="N30" s="8" t="s">
         <v>1363</v>
       </c>
-      <c r="N30" s="8" t="s">
+      <c r="O30" s="8" t="s">
         <v>1364</v>
       </c>
-      <c r="O30" s="8" t="s">
+      <c r="P30" s="8" t="s">
         <v>1365</v>
       </c>
-      <c r="P30" s="8" t="s">
+      <c r="Q30" s="8" t="s">
         <v>1366</v>
       </c>
-      <c r="Q30" s="8" t="s">
+      <c r="R30" s="8" t="s">
         <v>1367</v>
       </c>
-      <c r="R30" s="8" t="s">
+      <c r="S30" s="8" t="s">
         <v>1368</v>
-      </c>
-      <c r="S30" s="8" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -11879,58 +11884,58 @@
         <v>297</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>1370</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="7" t="s">
         <v>1371</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="E31" s="4" t="s">
         <v>1372</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="8" t="s">
         <v>1373</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="G31" s="8" t="s">
         <v>1374</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="H31" s="5" t="s">
         <v>1375</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="I31" s="8" t="s">
         <v>1376</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="J31" s="5" t="s">
         <v>1377</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="K31" s="5" t="s">
         <v>1378</v>
       </c>
-      <c r="K31" s="5" t="s">
+      <c r="L31" s="8" t="s">
         <v>1379</v>
       </c>
-      <c r="L31" s="8" t="s">
+      <c r="M31" s="8" t="s">
         <v>1380</v>
       </c>
-      <c r="M31" s="8" t="s">
+      <c r="N31" s="8" t="s">
         <v>1381</v>
       </c>
-      <c r="N31" s="8" t="s">
+      <c r="O31" s="5" t="s">
+        <v>1371</v>
+      </c>
+      <c r="P31" s="8" t="s">
         <v>1382</v>
       </c>
-      <c r="O31" s="5" t="s">
-        <v>1372</v>
-      </c>
-      <c r="P31" s="8" t="s">
+      <c r="Q31" s="8" t="s">
         <v>1383</v>
       </c>
-      <c r="Q31" s="8" t="s">
+      <c r="R31" s="8" t="s">
         <v>1384</v>
       </c>
-      <c r="R31" s="8" t="s">
+      <c r="S31" s="8" t="s">
         <v>1385</v>
-      </c>
-      <c r="S31" s="8" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -11938,58 +11943,58 @@
         <v>307</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>1387</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>1388</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="3" t="s">
         <v>1389</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="8" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>1390</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G32" s="5" t="s">
+      <c r="H32" s="8" t="s">
         <v>1391</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="I32" s="8" t="s">
         <v>1392</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="J32" s="4" t="s">
         <v>1393</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="K32" s="7" t="s">
         <v>1394</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="8" t="s">
         <v>1395</v>
       </c>
-      <c r="L32" s="8" t="s">
+      <c r="M32" s="8" t="s">
         <v>1396</v>
       </c>
-      <c r="M32" s="8" t="s">
+      <c r="N32" s="8" t="s">
         <v>1397</v>
       </c>
-      <c r="N32" s="8" t="s">
+      <c r="O32" s="8" t="s">
         <v>1398</v>
       </c>
-      <c r="O32" s="8" t="s">
+      <c r="P32" s="8" t="s">
         <v>1399</v>
       </c>
-      <c r="P32" s="8" t="s">
+      <c r="Q32" s="8" t="s">
         <v>1400</v>
       </c>
-      <c r="Q32" s="8" t="s">
+      <c r="R32" s="5" t="s">
         <v>1401</v>
       </c>
-      <c r="R32" s="5" t="s">
+      <c r="S32" s="8" t="s">
         <v>1402</v>
-      </c>
-      <c r="S32" s="8" t="s">
-        <v>1403</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -11997,58 +12002,58 @@
         <v>315</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>1404</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="D33" s="6" t="s">
         <v>1405</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="E33" s="4" t="s">
         <v>1406</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="F33" s="7" t="s">
         <v>1407</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="5" t="s">
         <v>1408</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="H33" s="8" t="s">
         <v>1409</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="I33" s="8" t="s">
         <v>1410</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="J33" s="8" t="s">
         <v>1411</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="K33" s="3" t="s">
         <v>1412</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="L33" s="8" t="s">
         <v>1413</v>
       </c>
-      <c r="L33" s="8" t="s">
+      <c r="M33" s="8" t="s">
         <v>1414</v>
       </c>
-      <c r="M33" s="8" t="s">
+      <c r="N33" s="5" t="s">
         <v>1415</v>
       </c>
-      <c r="N33" s="5" t="s">
+      <c r="O33" s="8" t="s">
         <v>1416</v>
       </c>
-      <c r="O33" s="8" t="s">
+      <c r="P33" s="8" t="s">
         <v>1417</v>
       </c>
-      <c r="P33" s="8" t="s">
+      <c r="Q33" s="8" t="s">
         <v>1418</v>
       </c>
-      <c r="Q33" s="8" t="s">
+      <c r="R33" s="5" t="s">
         <v>1419</v>
       </c>
-      <c r="R33" s="5" t="s">
+      <c r="S33" s="8" t="s">
         <v>1420</v>
-      </c>
-      <c r="S33" s="8" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -12056,58 +12061,58 @@
         <v>324</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>1422</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>1423</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E34" s="5" t="s">
+      <c r="F34" s="8" t="s">
         <v>1424</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="G34" s="8" t="s">
         <v>1425</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="H34" s="3" t="s">
         <v>1426</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" s="8" t="s">
         <v>1427</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="J34" s="6" t="s">
         <v>1428</v>
       </c>
-      <c r="J34" s="6" t="s">
+      <c r="K34" s="8" t="s">
         <v>1429</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="L34" s="8" t="s">
         <v>1430</v>
       </c>
-      <c r="L34" s="8" t="s">
+      <c r="M34" s="5" t="s">
         <v>1431</v>
       </c>
-      <c r="M34" s="5" t="s">
+      <c r="N34" s="8" t="s">
         <v>1432</v>
       </c>
-      <c r="N34" s="8" t="s">
+      <c r="O34" s="8" t="s">
         <v>1433</v>
       </c>
-      <c r="O34" s="8" t="s">
+      <c r="P34" s="8" t="s">
         <v>1434</v>
       </c>
-      <c r="P34" s="8" t="s">
+      <c r="Q34" s="8" t="s">
         <v>1435</v>
       </c>
-      <c r="Q34" s="8" t="s">
+      <c r="R34" s="7" t="s">
         <v>1436</v>
       </c>
-      <c r="R34" s="7" t="s">
+      <c r="S34" s="8" t="s">
         <v>1437</v>
-      </c>
-      <c r="S34" s="8" t="s">
-        <v>1438</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -12115,58 +12120,58 @@
         <v>334</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>1439</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>1440</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="5" t="s">
         <v>1441</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="F35" s="8" t="s">
         <v>1442</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="G35" s="5" t="s">
         <v>1443</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="H35" s="7" t="s">
         <v>1444</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="I35" s="5" t="s">
         <v>1445</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="J35" s="8" t="s">
         <v>1446</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="K35" s="8" t="s">
         <v>1447</v>
       </c>
-      <c r="K35" s="8" t="s">
+      <c r="L35" s="8" t="s">
         <v>1448</v>
       </c>
-      <c r="L35" s="8" t="s">
+      <c r="M35" s="8" t="s">
         <v>1449</v>
       </c>
-      <c r="M35" s="8" t="s">
+      <c r="N35" s="8" t="s">
         <v>1450</v>
       </c>
-      <c r="N35" s="8" t="s">
+      <c r="O35" s="8" t="s">
         <v>1451</v>
       </c>
-      <c r="O35" s="8" t="s">
+      <c r="P35" s="8" t="s">
         <v>1452</v>
       </c>
-      <c r="P35" s="8" t="s">
+      <c r="Q35" s="8" t="s">
         <v>1453</v>
       </c>
-      <c r="Q35" s="8" t="s">
+      <c r="R35" s="5" t="s">
         <v>1454</v>
       </c>
-      <c r="R35" s="5" t="s">
+      <c r="S35" s="8" t="s">
         <v>1455</v>
-      </c>
-      <c r="S35" s="8" t="s">
-        <v>1456</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -12174,58 +12179,58 @@
         <v>342</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>1457</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>1458</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>370</v>
       </c>
       <c r="E36" s="6" t="s">
+        <v>1458</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>1459</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>1460</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="H36" s="8" t="s">
         <v>1461</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="I36" s="8" t="s">
         <v>1462</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="J36" s="7" t="s">
         <v>1463</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="K36" s="8" t="s">
         <v>1464</v>
       </c>
-      <c r="K36" s="8" t="s">
+      <c r="L36" s="8" t="s">
         <v>1465</v>
       </c>
-      <c r="L36" s="8" t="s">
+      <c r="M36" s="8" t="s">
         <v>1466</v>
       </c>
-      <c r="M36" s="8" t="s">
+      <c r="N36" s="8" t="s">
         <v>1467</v>
       </c>
-      <c r="N36" s="8" t="s">
+      <c r="O36" s="8" t="s">
         <v>1468</v>
       </c>
-      <c r="O36" s="8" t="s">
+      <c r="P36" s="8" t="s">
         <v>1469</v>
       </c>
-      <c r="P36" s="8" t="s">
+      <c r="Q36" s="8" t="s">
         <v>1470</v>
       </c>
-      <c r="Q36" s="8" t="s">
+      <c r="R36" s="5" t="s">
         <v>1471</v>
       </c>
-      <c r="R36" s="5" t="s">
+      <c r="S36" s="8" t="s">
         <v>1472</v>
-      </c>
-      <c r="S36" s="8" t="s">
-        <v>1473</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -12233,58 +12238,58 @@
         <v>352</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>1474</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="5" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>1475</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>1308</v>
-      </c>
-      <c r="E37" s="5" t="s">
+      <c r="F37" s="8" t="s">
         <v>1476</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="G37" s="5" t="s">
         <v>1477</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="H37" s="8" t="s">
         <v>1478</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="I37" s="8" t="s">
+        <v>1335</v>
+      </c>
+      <c r="J37" s="8" t="s">
         <v>1479</v>
       </c>
-      <c r="I37" s="8" t="s">
-        <v>1336</v>
-      </c>
-      <c r="J37" s="8" t="s">
+      <c r="K37" s="5" t="s">
         <v>1480</v>
       </c>
-      <c r="K37" s="5" t="s">
+      <c r="L37" s="8" t="s">
         <v>1481</v>
       </c>
-      <c r="L37" s="8" t="s">
+      <c r="M37" s="8" t="s">
         <v>1482</v>
       </c>
-      <c r="M37" s="8" t="s">
+      <c r="N37" s="8" t="s">
         <v>1483</v>
       </c>
-      <c r="N37" s="8" t="s">
+      <c r="O37" s="8" t="s">
         <v>1484</v>
       </c>
-      <c r="O37" s="8" t="s">
+      <c r="P37" s="7" t="s">
         <v>1485</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="6" t="s">
         <v>1486</v>
       </c>
-      <c r="Q37" s="6" t="s">
+      <c r="R37" s="8" t="s">
         <v>1487</v>
       </c>
-      <c r="R37" s="8" t="s">
+      <c r="S37" s="8" t="s">
         <v>1488</v>
-      </c>
-      <c r="S37" s="8" t="s">
-        <v>1489</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -12292,58 +12297,58 @@
         <v>362</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>1490</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="D38" s="3" t="s">
         <v>1491</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="6" t="s">
         <v>1492</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="F38" s="5" t="s">
         <v>1493</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="G38" s="5" t="s">
         <v>1494</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="H38" s="8" t="s">
         <v>1495</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="I38" s="8" t="s">
         <v>1496</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="J38" s="8" t="s">
         <v>1497</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="K38" s="5" t="s">
         <v>1498</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="L38" s="8" t="s">
         <v>1499</v>
       </c>
-      <c r="L38" s="8" t="s">
+      <c r="M38" s="8" t="s">
         <v>1500</v>
       </c>
-      <c r="M38" s="8" t="s">
+      <c r="N38" s="7" t="s">
         <v>1501</v>
       </c>
-      <c r="N38" s="7" t="s">
+      <c r="O38" s="8" t="s">
         <v>1502</v>
       </c>
-      <c r="O38" s="8" t="s">
+      <c r="P38" s="8" t="s">
         <v>1503</v>
       </c>
-      <c r="P38" s="8" t="s">
+      <c r="Q38" s="8" t="s">
         <v>1504</v>
       </c>
-      <c r="Q38" s="8" t="s">
+      <c r="R38" s="8" t="s">
         <v>1505</v>
       </c>
-      <c r="R38" s="8" t="s">
-        <v>1506</v>
-      </c>
       <c r="S38" s="8" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -12366,7 +12371,7 @@
         <v>380</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>380</v>
@@ -12702,7 +12707,7 @@
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="25" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B45" s="25">
         <v>19</v>
@@ -12764,58 +12769,58 @@
         <v>391</v>
       </c>
       <c r="B46" s="13" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>1509</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="D46" s="13" t="s">
         <v>1510</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="E46" s="13" t="s">
         <v>1511</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="F46" s="13" t="s">
         <v>1512</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="G46" s="13" t="s">
         <v>1513</v>
       </c>
-      <c r="G46" s="13" t="s">
+      <c r="H46" s="13" t="s">
         <v>1514</v>
       </c>
-      <c r="H46" s="13" t="s">
+      <c r="I46" s="13" t="s">
         <v>1515</v>
       </c>
-      <c r="I46" s="13" t="s">
+      <c r="J46" s="13" t="s">
         <v>1516</v>
       </c>
-      <c r="J46" s="13" t="s">
+      <c r="K46" s="13" t="s">
         <v>1517</v>
       </c>
-      <c r="K46" s="13" t="s">
+      <c r="L46" s="13" t="s">
         <v>1518</v>
       </c>
-      <c r="L46" s="13" t="s">
+      <c r="M46" s="13" t="s">
         <v>1519</v>
       </c>
-      <c r="M46" s="13" t="s">
+      <c r="N46" s="13" t="s">
         <v>1520</v>
       </c>
-      <c r="N46" s="13" t="s">
+      <c r="O46" s="13" t="s">
         <v>1521</v>
       </c>
-      <c r="O46" s="13" t="s">
+      <c r="P46" s="13" t="s">
         <v>1522</v>
       </c>
-      <c r="P46" s="13" t="s">
+      <c r="Q46" s="13" t="s">
         <v>1523</v>
       </c>
-      <c r="Q46" s="13" t="s">
+      <c r="R46" s="13" t="s">
         <v>1524</v>
       </c>
-      <c r="R46" s="13" t="s">
+      <c r="S46" s="13" t="s">
         <v>1525</v>
-      </c>
-      <c r="S46" s="13" t="s">
-        <v>1526</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -12839,7 +12844,7 @@
         <v>405</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
@@ -12855,119 +12860,119 @@
         <v>408</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B51" s="20" t="s">
         <v>404</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B52" s="21" t="s">
         <v>404</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B53" s="21" t="s">
         <v>404</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B54" s="21" t="s">
         <v>404</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B55" s="21" t="s">
         <v>404</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B56" s="22" t="s">
         <v>404</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B57" s="23" t="s">
         <v>404</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
@@ -13011,49 +13016,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1534</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1535</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1536</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1537</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1538</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1539</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1540</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="24" t="s">
         <v>1541</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="K1" s="1" t="s">
         <v>1542</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="24" t="s">
         <v>1543</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="M1" s="1" t="s">
         <v>1544</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>1545</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>1546</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>1547</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>1548</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -13061,46 +13066,46 @@
         <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1549</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>1550</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>1551</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="7" t="s">
+        <v>1550</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>1552</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>1551</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>1553</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="8" t="s">
         <v>1554</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>1555</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="5" t="s">
         <v>1556</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="8" t="s">
         <v>1557</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>1558</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>1559</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>1560</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>380</v>
@@ -13111,40 +13116,40 @@
         <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>1561</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>1562</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>1563</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="7" t="s">
         <v>1564</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>1565</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>1566</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="8" t="s">
         <v>1567</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>1568</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="5" t="s">
         <v>1569</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="8" t="s">
         <v>1570</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>1571</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>1572</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>380</v>
@@ -13161,40 +13166,40 @@
         <v>30</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>1573</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>1574</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>1575</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>210</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>1575</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>1576</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="7" t="s">
         <v>1577</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="5" t="s">
         <v>1578</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="8" t="s">
         <v>1579</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>1580</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="L4" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>1581</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>795</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>1582</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>380</v>
@@ -13211,46 +13216,46 @@
         <v>40</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>1583</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>937</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>1584</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="6" t="s">
         <v>1585</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>1586</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>1587</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="7" t="s">
         <v>1588</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="8" t="s">
         <v>1589</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="K5" s="8" t="s">
         <v>1590</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="L5" s="8" t="s">
         <v>1591</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="M5" s="8" t="s">
         <v>1592</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="N5" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="O5" s="8" t="s">
         <v>1593</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>1594</v>
       </c>
       <c r="P5" s="8" t="s">
         <v>380</v>
@@ -13261,40 +13266,40 @@
         <v>50</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>1595</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>1596</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>1597</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="5" t="s">
         <v>1598</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>1599</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>1600</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="7" t="s">
         <v>1601</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="8" t="s">
         <v>1602</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="K6" s="8" t="s">
         <v>1603</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="L6" s="8" t="s">
         <v>1604</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="M6" s="8" t="s">
         <v>1605</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>1606</v>
       </c>
       <c r="N6" s="8" t="s">
         <v>380</v>
@@ -13311,40 +13316,40 @@
         <v>60</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>1607</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>1608</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>1609</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>1610</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>1611</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="7" t="s">
         <v>1612</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="5" t="s">
         <v>1613</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="8" t="s">
         <v>1614</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>1615</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="L7" s="8" t="s">
         <v>1616</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>1617</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>1618</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>380</v>
@@ -13361,40 +13366,40 @@
         <v>70</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>1619</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>1620</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="7" t="s">
         <v>1621</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>1622</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="3" t="s">
         <v>1623</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="5" t="s">
         <v>1624</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>1625</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>1082</v>
-      </c>
-      <c r="J8" s="8" t="s">
+      <c r="K8" s="8" t="s">
         <v>1626</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="L8" s="8" t="s">
+        <v>1031</v>
+      </c>
+      <c r="M8" s="8" t="s">
         <v>1627</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>1032</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>1628</v>
       </c>
       <c r="N8" s="8" t="s">
         <v>380</v>
@@ -13411,40 +13416,40 @@
         <v>80</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>1629</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>1630</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>1631</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>247</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>1631</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>1632</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="5" t="s">
         <v>1633</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="7" t="s">
         <v>1634</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="8" t="s">
         <v>1635</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="K9" s="8" t="s">
         <v>1636</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="L9" s="8" t="s">
         <v>1637</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="M9" s="8" t="s">
         <v>1638</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>1639</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>380</v>
@@ -13461,40 +13466,40 @@
         <v>90</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>1640</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>1641</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="7" t="s">
         <v>1642</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>1643</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="3" t="s">
         <v>1644</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="5" t="s">
         <v>1645</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>1646</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="8" t="s">
+        <v>1270</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>1647</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>1271</v>
-      </c>
-      <c r="K10" s="8" t="s">
+      <c r="L10" s="8" t="s">
         <v>1648</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="M10" s="8" t="s">
         <v>1649</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>1650</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>380</v>
@@ -13511,40 +13516,40 @@
         <v>100</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>1651</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>1652</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>1653</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>1654</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>1655</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>1656</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="5" t="s">
         <v>1657</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="8" t="s">
         <v>1658</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="K11" s="8" t="s">
         <v>1659</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="L11" s="8" t="s">
         <v>1660</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="M11" s="8" t="s">
         <v>1661</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>1662</v>
       </c>
       <c r="N11" s="8" t="s">
         <v>380</v>
@@ -13561,40 +13566,40 @@
         <v>110</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>1663</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>1664</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="6" t="s">
         <v>1665</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>1666</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>1667</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>1668</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>1669</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" s="8" t="s">
         <v>1670</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="K12" s="8" t="s">
         <v>1671</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="L12" s="8" t="s">
         <v>1672</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="M12" s="8" t="s">
         <v>1673</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>1674</v>
       </c>
       <c r="N12" s="8" t="s">
         <v>380</v>
@@ -13611,40 +13616,40 @@
         <v>120</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>1675</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>1676</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>1677</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="6" t="s">
         <v>1678</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>1679</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>1680</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="7" t="s">
         <v>1681</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="J13" s="8" t="s">
         <v>1682</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="K13" s="8" t="s">
         <v>1683</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="L13" s="8" t="s">
         <v>1684</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="M13" s="8" t="s">
         <v>1685</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>1686</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>380</v>
@@ -13661,40 +13666,40 @@
         <v>130</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>1687</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>1688</v>
-      </c>
       <c r="D14" s="8" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>191</v>
       </c>
       <c r="F14" s="5" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>1689</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>1690</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="6" t="s">
         <v>1691</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="J14" s="7" t="s">
         <v>1692</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>1693</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="L14" s="8" t="s">
         <v>1694</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="M14" s="8" t="s">
         <v>1695</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>1696</v>
       </c>
       <c r="N14" s="8" t="s">
         <v>380</v>
@@ -13711,40 +13716,40 @@
         <v>139</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>1697</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>1556</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>1698</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="6" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>1699</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>1211</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="4" t="s">
         <v>1700</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="5" t="s">
         <v>1701</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" s="8" t="s">
         <v>1702</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="K15" s="8" t="s">
         <v>1703</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="L15" s="8" t="s">
         <v>1704</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="M15" s="8" t="s">
         <v>1705</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>1706</v>
       </c>
       <c r="N15" s="8" t="s">
         <v>380</v>
@@ -13761,40 +13766,40 @@
         <v>149</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>1707</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>1708</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="7" t="s">
         <v>1709</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>1710</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="8" t="s">
         <v>1711</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="H16" s="4" t="s">
         <v>1712</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="5" t="s">
         <v>1713</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="J16" s="8" t="s">
         <v>1714</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="K16" s="5" t="s">
         <v>1715</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="L16" s="8" t="s">
         <v>1716</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="M16" s="8" t="s">
         <v>1717</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>1718</v>
       </c>
       <c r="N16" s="8" t="s">
         <v>380</v>
@@ -13811,40 +13816,40 @@
         <v>159</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>1719</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>1720</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="7" t="s">
         <v>1721</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>1722</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="8" t="s">
         <v>1723</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="H17" s="4" t="s">
         <v>1724</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="I17" s="5" t="s">
+        <v>1112</v>
+      </c>
+      <c r="J17" s="8" t="s">
         <v>1725</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>1113</v>
-      </c>
-      <c r="J17" s="8" t="s">
+      <c r="K17" s="5" t="s">
         <v>1726</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="L17" s="8" t="s">
         <v>1727</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="M17" s="8" t="s">
         <v>1728</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>1729</v>
       </c>
       <c r="N17" s="8" t="s">
         <v>380</v>
@@ -13861,40 +13866,40 @@
         <v>169</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>1730</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>1731</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>1732</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>1733</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="3" t="s">
         <v>1734</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="5" t="s">
         <v>1735</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="J18" s="7" t="s">
         <v>1736</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>1737</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="L18" s="8" t="s">
         <v>1738</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="M18" s="8" t="s">
         <v>1739</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>1740</v>
       </c>
       <c r="N18" s="8" t="s">
         <v>380</v>
@@ -13911,40 +13916,40 @@
         <v>179</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>1741</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>1742</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>1743</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="7" t="s">
         <v>1744</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="5" t="s">
         <v>1745</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>1746</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="I19" s="6" t="s">
         <v>1747</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="J19" s="8" t="s">
         <v>1748</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="K19" s="8" t="s">
         <v>1749</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="L19" s="8" t="s">
         <v>1750</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="M19" s="8" t="s">
         <v>1751</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>1752</v>
       </c>
       <c r="N19" s="8" t="s">
         <v>380</v>
@@ -13961,40 +13966,40 @@
         <v>189</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>1753</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="3" t="s">
         <v>1754</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="6" t="s">
         <v>1755</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>1756</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="7" t="s">
         <v>1757</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="5" t="s">
         <v>1758</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="I20" s="4" t="s">
         <v>1759</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="J20" s="8" t="s">
         <v>1760</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="K20" s="8" t="s">
         <v>1761</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="L20" s="8" t="s">
         <v>1762</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="M20" s="8" t="s">
         <v>1763</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>1764</v>
       </c>
       <c r="N20" s="8" t="s">
         <v>380</v>
@@ -14011,40 +14016,40 @@
         <v>199</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>1765</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="3" t="s">
         <v>1766</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="7" t="s">
         <v>1767</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="5" t="s">
         <v>1768</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>1769</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>1770</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="I21" s="4" t="s">
         <v>1771</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="J21" s="8" t="s">
         <v>1772</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="K21" s="8" t="s">
         <v>1773</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="L21" s="8" t="s">
         <v>1774</v>
       </c>
-      <c r="L21" s="8" t="s">
+      <c r="M21" s="8" t="s">
         <v>1775</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>1776</v>
       </c>
       <c r="N21" s="8" t="s">
         <v>380</v>
@@ -14061,40 +14066,40 @@
         <v>209</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>1777</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>782</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>1778</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>1779</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="6" t="s">
         <v>1780</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="H22" s="5" t="s">
         <v>1781</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="7" t="s">
         <v>1782</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="J22" s="8" t="s">
         <v>1783</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="K22" s="8" t="s">
         <v>1784</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="L22" s="8" t="s">
         <v>1785</v>
       </c>
-      <c r="L22" s="8" t="s">
+      <c r="M22" s="8" t="s">
         <v>1786</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>1787</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>380</v>
@@ -14111,40 +14116,40 @@
         <v>219</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>1788</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>1789</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="7" t="s">
         <v>1790</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="5" t="s">
         <v>1791</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="G23" s="5" t="s">
         <v>1792</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>1793</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="I23" s="3" t="s">
         <v>1794</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" s="8" t="s">
         <v>1795</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="K23" s="8" t="s">
         <v>1796</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="L23" s="8" t="s">
         <v>1797</v>
       </c>
-      <c r="L23" s="8" t="s">
+      <c r="M23" s="8" t="s">
         <v>1798</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>1799</v>
       </c>
       <c r="N23" s="8" t="s">
         <v>380</v>
@@ -14161,40 +14166,40 @@
         <v>229</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>1800</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="7" t="s">
         <v>1801</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>1802</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>1803</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>1804</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>1805</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="I24" s="5" t="s">
         <v>1806</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="J24" s="8" t="s">
         <v>1807</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="K24" s="8" t="s">
         <v>1808</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="L24" s="8" t="s">
         <v>1809</v>
       </c>
-      <c r="L24" s="8" t="s">
+      <c r="M24" s="8" t="s">
         <v>1810</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>1811</v>
       </c>
       <c r="N24" s="8" t="s">
         <v>380</v>
@@ -14211,40 +14216,40 @@
         <v>239</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>1812</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>1813</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>1814</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="6" t="s">
         <v>1815</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>1816</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>1817</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="I25" s="7" t="s">
         <v>1818</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="J25" s="8" t="s">
         <v>1819</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="K25" s="8" t="s">
         <v>1820</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="L25" s="8" t="s">
         <v>1821</v>
       </c>
-      <c r="L25" s="8" t="s">
+      <c r="M25" s="8" t="s">
         <v>1822</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>1823</v>
       </c>
       <c r="N25" s="8" t="s">
         <v>380</v>
@@ -14261,40 +14266,40 @@
         <v>249</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>1824</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="6" t="s">
         <v>1825</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>1826</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>1827</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="5" t="s">
         <v>1828</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="H26" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>1829</v>
       </c>
-      <c r="H26" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="I26" s="5" t="s">
+      <c r="J26" s="8" t="s">
         <v>1830</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="K26" s="7" t="s">
         <v>1831</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="8" t="s">
         <v>1832</v>
       </c>
-      <c r="L26" s="8" t="s">
+      <c r="M26" s="8" t="s">
         <v>1833</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>1834</v>
       </c>
       <c r="N26" s="8" t="s">
         <v>380</v>
@@ -14311,40 +14316,40 @@
         <v>258</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>1835</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="7" t="s">
         <v>1836</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="5" t="s">
         <v>1837</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>1838</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="3" t="s">
         <v>1839</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="6" t="s">
         <v>1840</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="I27" s="5" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J27" s="8" t="s">
         <v>1841</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>1197</v>
-      </c>
-      <c r="J27" s="8" t="s">
+      <c r="K27" s="8" t="s">
         <v>1842</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="L27" s="8" t="s">
         <v>1843</v>
       </c>
-      <c r="L27" s="8" t="s">
+      <c r="M27" s="8" t="s">
         <v>1844</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>1845</v>
       </c>
       <c r="N27" s="8" t="s">
         <v>380</v>
@@ -14361,40 +14366,40 @@
         <v>267</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>1846</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="6" t="s">
         <v>1847</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>1848</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="3" t="s">
         <v>1849</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="7" t="s">
         <v>1850</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="H28" s="4" t="s">
         <v>1851</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="I28" s="5" t="s">
         <v>1852</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="J28" s="8" t="s">
+        <v>1593</v>
+      </c>
+      <c r="K28" s="8" t="s">
         <v>1853</v>
       </c>
-      <c r="J28" s="8" t="s">
-        <v>1594</v>
-      </c>
-      <c r="K28" s="8" t="s">
+      <c r="L28" s="8" t="s">
         <v>1854</v>
       </c>
-      <c r="L28" s="8" t="s">
+      <c r="M28" s="8" t="s">
         <v>1855</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>1856</v>
       </c>
       <c r="N28" s="8" t="s">
         <v>380</v>
@@ -14411,40 +14416,40 @@
         <v>277</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>1857</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>1858</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>1859</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>1860</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="G29" s="5" t="s">
         <v>1861</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="H29" s="3" t="s">
         <v>1862</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="5" t="s">
         <v>1863</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="J29" s="8" t="s">
         <v>1864</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="K29" s="8" t="s">
         <v>1865</v>
       </c>
-      <c r="K29" s="8" t="s">
+      <c r="L29" s="8" t="s">
         <v>1866</v>
       </c>
-      <c r="L29" s="8" t="s">
+      <c r="M29" s="8" t="s">
         <v>1867</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>1868</v>
       </c>
       <c r="N29" s="8" t="s">
         <v>380</v>
@@ -14461,40 +14466,40 @@
         <v>287</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>1869</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="D30" s="4" t="s">
         <v>1870</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="6" t="s">
         <v>1871</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>1872</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>1873</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>1874</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="I30" s="5" t="s">
         <v>1875</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="J30" s="8" t="s">
+        <v>1785</v>
+      </c>
+      <c r="K30" s="8" t="s">
         <v>1876</v>
       </c>
-      <c r="J30" s="8" t="s">
-        <v>1786</v>
-      </c>
-      <c r="K30" s="8" t="s">
+      <c r="L30" s="8" t="s">
         <v>1877</v>
       </c>
-      <c r="L30" s="8" t="s">
+      <c r="M30" s="8" t="s">
         <v>1878</v>
-      </c>
-      <c r="M30" s="8" t="s">
-        <v>1879</v>
       </c>
       <c r="N30" s="8" t="s">
         <v>380</v>
@@ -14511,40 +14516,40 @@
         <v>297</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>1880</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="3" t="s">
         <v>1881</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="6" t="s">
         <v>1882</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>1883</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>1884</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="H31" s="5" t="s">
         <v>1885</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="I31" s="7" t="s">
         <v>1886</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="J31" s="8" t="s">
         <v>1887</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="K31" s="8" t="s">
         <v>1888</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="L31" s="8" t="s">
         <v>1889</v>
       </c>
-      <c r="L31" s="8" t="s">
+      <c r="M31" s="8" t="s">
         <v>1890</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>1891</v>
       </c>
       <c r="N31" s="8" t="s">
         <v>380</v>
@@ -14561,40 +14566,40 @@
         <v>307</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>1892</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="4" t="s">
         <v>1893</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="5" t="s">
         <v>1894</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="F32" s="5" t="s">
         <v>1895</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>1896</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="H32" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="I32" s="7" t="s">
         <v>1897</v>
       </c>
-      <c r="H32" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="I32" s="7" t="s">
+      <c r="J32" s="8" t="s">
         <v>1898</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="K32" s="8" t="s">
         <v>1899</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="L32" s="8" t="s">
         <v>1900</v>
       </c>
-      <c r="L32" s="8" t="s">
+      <c r="M32" s="8" t="s">
         <v>1901</v>
-      </c>
-      <c r="M32" s="8" t="s">
-        <v>1902</v>
       </c>
       <c r="N32" s="8" t="s">
         <v>380</v>
@@ -14611,37 +14616,37 @@
         <v>315</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>1903</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>1904</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="8" t="s">
         <v>1905</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="F33" s="5" t="s">
         <v>1906</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="G33" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H33" s="8" t="s">
         <v>1907</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>1048</v>
-      </c>
-      <c r="H33" s="8" t="s">
+      <c r="I33" s="8" t="s">
         <v>1908</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="J33" s="5" t="s">
         <v>1909</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="K33" s="5" t="s">
         <v>1910</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="L33" s="7" t="s">
         <v>1911</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>1912</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>380</v>
@@ -14661,37 +14666,37 @@
         <v>324</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>183</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>1914</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="F34" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="G34" s="7" t="s">
         <v>1916</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="8" t="s">
         <v>1917</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="I34" s="8" t="s">
         <v>1918</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="J34" s="5" t="s">
         <v>1919</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="K34" s="5" t="s">
         <v>1920</v>
       </c>
-      <c r="K34" s="5" t="s">
+      <c r="L34" s="8" t="s">
         <v>1921</v>
-      </c>
-      <c r="L34" s="8" t="s">
-        <v>1922</v>
       </c>
       <c r="M34" s="8" t="s">
         <v>380</v>
@@ -14711,37 +14716,37 @@
         <v>334</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>1923</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="4" t="s">
         <v>1924</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="E35" s="7" t="s">
         <v>1925</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="F35" s="5" t="s">
         <v>1926</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="G35" s="5" t="s">
         <v>1927</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="H35" s="5" t="s">
         <v>1928</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="I35" s="8" t="s">
         <v>1929</v>
       </c>
-      <c r="I35" s="8" t="s">
+      <c r="J35" s="6" t="s">
         <v>1930</v>
       </c>
-      <c r="J35" s="6" t="s">
+      <c r="K35" s="8" t="s">
         <v>1931</v>
       </c>
-      <c r="K35" s="8" t="s">
-        <v>1932</v>
-      </c>
       <c r="L35" s="8" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="M35" s="8" t="s">
         <v>380</v>
@@ -14761,37 +14766,37 @@
         <v>342</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>1933</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="5" t="s">
         <v>1934</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>1935</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>1936</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="G36" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="H36" s="8" t="s">
         <v>1937</v>
       </c>
-      <c r="G36" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="H36" s="8" t="s">
+      <c r="I36" s="8" t="s">
         <v>1938</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="J36" s="4" t="s">
         <v>1939</v>
       </c>
-      <c r="J36" s="4" t="s">
-        <v>1940</v>
-      </c>
       <c r="K36" s="5" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>380</v>
@@ -14811,37 +14816,37 @@
         <v>352</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>1941</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>1942</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>911</v>
-      </c>
-      <c r="E37" s="5" t="s">
+      <c r="F37" s="4" t="s">
         <v>1943</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="G37" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="H37" s="7" t="s">
         <v>1944</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="H37" s="7" t="s">
+      <c r="I37" s="8" t="s">
         <v>1945</v>
       </c>
-      <c r="I37" s="8" t="s">
+      <c r="J37" s="5" t="s">
         <v>1946</v>
       </c>
-      <c r="J37" s="5" t="s">
+      <c r="K37" s="5" t="s">
         <v>1947</v>
       </c>
-      <c r="K37" s="5" t="s">
+      <c r="L37" s="8" t="s">
         <v>1948</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>1949</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>380</v>
@@ -14861,37 +14866,37 @@
         <v>362</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>1950</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="D38" s="5" t="s">
         <v>1951</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>1952</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="F38" s="7" t="s">
         <v>1953</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="H38" s="8" t="s">
         <v>1954</v>
       </c>
-      <c r="G38" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="H38" s="8" t="s">
+      <c r="I38" s="8" t="s">
         <v>1955</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="J38" s="3" t="s">
         <v>1956</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="K38" s="5" t="s">
         <v>1957</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="L38" s="5" t="s">
         <v>1958</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>1959</v>
       </c>
       <c r="M38" s="8" t="s">
         <v>380</v>
@@ -14935,13 +14940,13 @@
         <v>380</v>
       </c>
       <c r="J39" s="3" t="s">
+        <v>1959</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="L39" s="4" t="s">
         <v>1960</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>1961</v>
       </c>
       <c r="M39" s="8" t="s">
         <v>380</v>
@@ -14985,13 +14990,13 @@
         <v>380</v>
       </c>
       <c r="J40" s="3" t="s">
+        <v>1961</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="L40" s="4" t="s">
         <v>1962</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>1963</v>
       </c>
       <c r="M40" s="8" t="s">
         <v>380</v>
@@ -15208,7 +15213,7 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="25" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B45" s="25">
         <v>7</v>
@@ -15261,49 +15266,49 @@
         <v>391</v>
       </c>
       <c r="B46" s="13" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>1965</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="D46" s="13" t="s">
         <v>1966</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="E46" s="13" t="s">
         <v>1967</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="F46" s="13" t="s">
         <v>1968</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="G46" s="13" t="s">
         <v>1969</v>
       </c>
-      <c r="G46" s="13" t="s">
+      <c r="H46" s="13" t="s">
         <v>1970</v>
       </c>
-      <c r="H46" s="13" t="s">
+      <c r="I46" s="13" t="s">
         <v>1971</v>
       </c>
-      <c r="I46" s="13" t="s">
+      <c r="J46" s="13" t="s">
         <v>1972</v>
       </c>
-      <c r="J46" s="13" t="s">
+      <c r="K46" s="13" t="s">
         <v>1973</v>
       </c>
-      <c r="K46" s="13" t="s">
+      <c r="L46" s="13" t="s">
         <v>1974</v>
       </c>
-      <c r="L46" s="13" t="s">
+      <c r="M46" s="13" t="s">
         <v>1975</v>
       </c>
-      <c r="M46" s="13" t="s">
+      <c r="N46" s="13" t="s">
         <v>1976</v>
       </c>
-      <c r="N46" s="13" t="s">
+      <c r="O46" s="13" t="s">
         <v>1977</v>
       </c>
-      <c r="O46" s="13" t="s">
-        <v>1978</v>
-      </c>
       <c r="P46" s="13" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -15327,7 +15332,7 @@
         <v>405</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
@@ -15343,119 +15348,119 @@
         <v>408</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B51" s="20" t="s">
         <v>404</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B52" s="21" t="s">
         <v>404</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B53" s="21" t="s">
         <v>404</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B54" s="21" t="s">
         <v>404</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B55" s="21" t="s">
         <v>404</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B56" s="22" t="s">
         <v>404</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B57" s="23" t="s">
         <v>404</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
